--- a/auxiliary_data/mics_dictionary_setcode.xlsx
+++ b/auxiliary_data/mics_dictionary_setcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="466">
   <si>
     <t xml:space="preserve">original_name</t>
   </si>
@@ -474,9 +474,6 @@
   </si>
   <si>
     <t xml:space="preserve">ed8a_replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year_file</t>
   </si>
   <si>
     <t xml:space="preserve">hh5m_replace</t>
@@ -1542,20 +1539,19 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.4183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,10 +2312,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,10 +2541,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,17 +2765,16 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,18 +2782,18 @@
         <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>78</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2014</v>
@@ -2814,7 +2807,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2014</v>
@@ -2828,7 +2821,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2014</v>
@@ -2842,7 +2835,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2014</v>
@@ -2856,7 +2849,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2014</v>
@@ -2892,15 +2885,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="64" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,19 +2900,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>7</v>
@@ -2928,7 +2920,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2011</v>
@@ -2937,12 +2929,12 @@
         <v>3</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2011</v>
@@ -2951,12 +2943,12 @@
         <v>3</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2015</v>
@@ -2965,12 +2957,12 @@
         <v>3</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2013</v>
@@ -2984,7 +2976,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2011</v>
@@ -2998,7 +2990,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2015</v>
@@ -3034,10 +3026,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,47 +3036,47 @@
         <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,39 +3084,39 @@
         <v>125</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,7 +3129,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>116</v>
@@ -3146,7 +3137,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>116</v>
@@ -3154,7 +3145,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>116</v>
@@ -3162,74 +3153,74 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3256,11 +3247,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="64" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,493 +3258,493 @@
         <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>249</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>253</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>268</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>280</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>294</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3781,10 +3771,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,319 +3781,319 @@
         <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>346</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,7 +4101,7 @@
         <v>125</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,7 +4114,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>116</v>
@@ -4133,7 +4122,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>116</v>
@@ -4141,7 +4130,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>116</v>
@@ -4149,98 +4138,98 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>358</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4262,17 +4251,16 @@
   <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,18 +4268,18 @@
         <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2012</v>
@@ -4305,7 +4293,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2012</v>
@@ -4319,7 +4307,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2012</v>
@@ -4333,7 +4321,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2012</v>
@@ -4347,7 +4335,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2012</v>
@@ -4361,7 +4349,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2012</v>
@@ -4375,7 +4363,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2012</v>
@@ -4389,7 +4377,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2012</v>
@@ -4403,7 +4391,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2012</v>
@@ -4417,7 +4405,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2012</v>
@@ -4431,7 +4419,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2012</v>
@@ -4445,7 +4433,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2012</v>
@@ -4459,7 +4447,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2012</v>
@@ -4473,7 +4461,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2012</v>
@@ -4487,7 +4475,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2012</v>
@@ -4501,7 +4489,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2011</v>
@@ -4515,7 +4503,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2011</v>
@@ -4529,7 +4517,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2011</v>
@@ -4543,7 +4531,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2011</v>
@@ -4557,7 +4545,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2011</v>
@@ -4571,7 +4559,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2015</v>
@@ -4585,7 +4573,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2015</v>
@@ -4599,7 +4587,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2015</v>
@@ -4613,7 +4601,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2015</v>
@@ -4627,7 +4615,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2015</v>
@@ -4641,7 +4629,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2014</v>
@@ -4655,7 +4643,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2014</v>
@@ -4669,7 +4657,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2014</v>
@@ -4683,7 +4671,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2010</v>
@@ -4697,7 +4685,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2010</v>
@@ -4711,7 +4699,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2010</v>
@@ -4725,7 +4713,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2010</v>
@@ -4739,7 +4727,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2011</v>
@@ -4753,7 +4741,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2011</v>
@@ -4767,7 +4755,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2010</v>
@@ -4781,7 +4769,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2010</v>
@@ -4795,7 +4783,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2010</v>
@@ -4809,7 +4797,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2010</v>
@@ -4823,7 +4811,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2014</v>
@@ -4837,7 +4825,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2014</v>
@@ -4851,7 +4839,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2014</v>
@@ -4865,7 +4853,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2014</v>
@@ -4879,7 +4867,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2014</v>
@@ -4893,7 +4881,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2014</v>
@@ -4907,7 +4895,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2014</v>
@@ -4921,7 +4909,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2014</v>
@@ -4935,7 +4923,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2014</v>
@@ -4949,7 +4937,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2014</v>
@@ -4963,7 +4951,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2014</v>
@@ -4977,7 +4965,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2014</v>
@@ -4991,7 +4979,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2014</v>
@@ -5005,7 +4993,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>2014</v>
@@ -5019,7 +5007,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2011</v>
@@ -5033,7 +5021,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2011</v>
@@ -5047,7 +5035,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>2011</v>
@@ -5061,7 +5049,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2011</v>
@@ -5075,7 +5063,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2011</v>
@@ -5089,7 +5077,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2014</v>
@@ -5103,7 +5091,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2011</v>
@@ -5117,7 +5105,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2011</v>
@@ -5131,7 +5119,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2011</v>
@@ -5145,7 +5133,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2011</v>
@@ -5159,7 +5147,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>2011</v>
@@ -5173,7 +5161,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2010</v>
@@ -5187,7 +5175,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2010</v>
@@ -5201,7 +5189,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2015</v>
@@ -5215,7 +5203,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2015</v>
@@ -5229,7 +5217,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2015</v>
@@ -5243,7 +5231,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2015</v>
@@ -5257,7 +5245,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2014</v>
@@ -5271,7 +5259,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2014</v>
@@ -5285,7 +5273,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>2014</v>
@@ -5299,7 +5287,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2014</v>
@@ -5313,7 +5301,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2014</v>
@@ -5327,7 +5315,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2011</v>
@@ -5341,7 +5329,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>2011</v>
@@ -5355,7 +5343,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>2011</v>
@@ -5369,7 +5357,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2011</v>
@@ -5383,7 +5371,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2009</v>
@@ -5397,7 +5385,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2009</v>
@@ -5411,7 +5399,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2009</v>
@@ -5425,7 +5413,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2015</v>
@@ -5439,7 +5427,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>2015</v>
@@ -5453,7 +5441,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2015</v>
@@ -5467,7 +5455,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>2015</v>
@@ -5481,7 +5469,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2011</v>
@@ -5495,7 +5483,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>2011</v>
@@ -5509,7 +5497,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2011</v>
@@ -5523,7 +5511,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2011</v>
@@ -5537,7 +5525,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>2015</v>
@@ -5551,7 +5539,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2015</v>
@@ -5565,7 +5553,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2015</v>
@@ -5579,7 +5567,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>2015</v>
@@ -5593,7 +5581,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2015</v>
@@ -5607,7 +5595,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2015</v>
@@ -5621,7 +5609,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>2015</v>
@@ -5635,7 +5623,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>2015</v>
@@ -5649,7 +5637,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2015</v>
@@ -5663,7 +5651,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>2015</v>
@@ -5677,7 +5665,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>2015</v>
@@ -5691,7 +5679,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>2015</v>
@@ -5705,7 +5693,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2010</v>
@@ -5719,7 +5707,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2010</v>
@@ -5733,7 +5721,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>2010</v>
@@ -5747,7 +5735,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2010</v>
@@ -5761,7 +5749,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2013</v>
@@ -5775,7 +5763,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>2013</v>
@@ -5789,7 +5777,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2013</v>
@@ -5803,7 +5791,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>2013</v>
@@ -5817,7 +5805,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2013</v>
@@ -5831,7 +5819,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>2011</v>
@@ -5845,7 +5833,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>2016</v>
@@ -5859,7 +5847,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>2014</v>
@@ -5873,7 +5861,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2014</v>
@@ -5887,7 +5875,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>2013</v>
@@ -5901,7 +5889,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2013</v>
@@ -5915,7 +5903,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2013</v>
@@ -5929,7 +5917,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2013</v>
@@ -5943,7 +5931,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2013</v>
@@ -5957,7 +5945,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>2013</v>
@@ -5971,7 +5959,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>2013</v>
@@ -5985,7 +5973,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>2013</v>
@@ -5999,7 +5987,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>2013</v>
@@ -6013,7 +6001,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>2013</v>
@@ -6027,7 +6015,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2016</v>
@@ -6041,7 +6029,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>2016</v>
@@ -6055,7 +6043,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>2016</v>
@@ -6069,7 +6057,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>2016</v>
@@ -6083,7 +6071,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>2016</v>
@@ -6097,7 +6085,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>2016</v>
@@ -6111,7 +6099,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>2016</v>
@@ -6125,7 +6113,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2016</v>
@@ -6139,7 +6127,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2012</v>
@@ -6153,7 +6141,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>2012</v>
@@ -6167,7 +6155,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>2012</v>
@@ -6181,7 +6169,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>2012</v>
@@ -6195,7 +6183,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2012</v>
@@ -6209,7 +6197,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>2010</v>
@@ -6223,7 +6211,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>2010</v>
@@ -6237,7 +6225,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2010</v>
@@ -6251,7 +6239,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>2010</v>
@@ -6265,7 +6253,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2010</v>
@@ -6279,7 +6267,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>2014</v>
@@ -6293,7 +6281,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>2014</v>
@@ -6307,7 +6295,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2014</v>
@@ -6321,7 +6309,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>2014</v>
@@ -6335,7 +6323,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>2014</v>
@@ -6349,7 +6337,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>2014</v>
@@ -6363,7 +6351,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>2014</v>
@@ -6377,7 +6365,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2014</v>
@@ -6391,7 +6379,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2014</v>
@@ -6405,7 +6393,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>2014</v>
@@ -6419,7 +6407,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2014</v>
@@ -6433,7 +6421,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>2014</v>
@@ -6447,7 +6435,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>2014</v>
@@ -6461,7 +6449,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>2014</v>
@@ -6475,7 +6463,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>2014</v>
@@ -6489,7 +6477,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>2010</v>
@@ -6503,7 +6491,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2010</v>
@@ -6517,7 +6505,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>2010</v>
@@ -6531,7 +6519,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2010</v>
@@ -6545,7 +6533,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2010</v>
@@ -6559,7 +6547,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>2010</v>
@@ -6573,7 +6561,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>2010</v>
@@ -6587,7 +6575,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>2010</v>
@@ -6601,7 +6589,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2010</v>
@@ -6615,7 +6603,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2014</v>
@@ -6629,7 +6617,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>2014</v>
@@ -6643,7 +6631,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>2014</v>
@@ -6657,7 +6645,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2011</v>
@@ -6671,7 +6659,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2011</v>
@@ -6685,7 +6673,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>2012</v>
@@ -6699,7 +6687,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>2012</v>
@@ -6713,7 +6701,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2012</v>
@@ -6727,7 +6715,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2012</v>
@@ -6741,7 +6729,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>2012</v>
@@ -6755,7 +6743,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>2012</v>
@@ -6769,7 +6757,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>2012</v>
@@ -6783,7 +6771,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2015</v>
@@ -6797,7 +6785,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>2015</v>
@@ -6811,7 +6799,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>2015</v>
@@ -6825,7 +6813,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>2015</v>
@@ -6839,7 +6827,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>2015</v>
@@ -6853,7 +6841,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2010</v>
@@ -6867,7 +6855,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>2010</v>
@@ -6881,7 +6869,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>2010</v>
@@ -6895,7 +6883,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2011</v>
@@ -6909,7 +6897,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>2011</v>
@@ -6923,7 +6911,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>2011</v>
@@ -6937,7 +6925,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>2011</v>
@@ -6951,7 +6939,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2011</v>
@@ -6965,7 +6953,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2011</v>
@@ -6979,7 +6967,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>2011</v>
@@ -6993,7 +6981,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>2011</v>
@@ -7007,7 +6995,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2015</v>
@@ -7021,7 +7009,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>2015</v>
@@ -7035,7 +7023,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>2015</v>
@@ -7049,7 +7037,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>2015</v>
@@ -7063,7 +7051,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2012</v>
@@ -7077,7 +7065,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2012</v>
@@ -7091,7 +7079,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>2012</v>
@@ -7105,7 +7093,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>2012</v>
@@ -7119,7 +7107,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>2012</v>
@@ -7133,7 +7121,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2012</v>
@@ -7147,7 +7135,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>2010</v>
@@ -7161,7 +7149,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>2010</v>
@@ -7175,7 +7163,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>2010</v>
@@ -7189,7 +7177,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2010</v>
@@ -7203,7 +7191,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2013</v>
@@ -7217,7 +7205,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>2013</v>
@@ -7231,7 +7219,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>2013</v>
@@ -7245,7 +7233,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2013</v>
@@ -7276,17 +7264,16 @@
   <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7294,18 +7281,18 @@
         <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2012</v>
@@ -7319,7 +7306,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2012</v>
@@ -7333,7 +7320,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2012</v>
@@ -7347,7 +7334,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2012</v>
@@ -7361,7 +7348,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2012</v>
@@ -7375,7 +7362,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2012</v>
@@ -7389,7 +7376,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2012</v>
@@ -7403,7 +7390,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2012</v>
@@ -7417,7 +7404,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2012</v>
@@ -7431,7 +7418,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2012</v>
@@ -7445,7 +7432,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2012</v>
@@ -7459,7 +7446,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2012</v>
@@ -7473,7 +7460,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2012</v>
@@ -7487,7 +7474,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2012</v>
@@ -7501,7 +7488,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2012</v>
@@ -7515,7 +7502,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2011</v>
@@ -7529,7 +7516,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2011</v>
@@ -7543,7 +7530,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2011</v>
@@ -7557,7 +7544,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2011</v>
@@ -7571,7 +7558,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2011</v>
@@ -7585,7 +7572,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2015</v>
@@ -7599,7 +7586,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2015</v>
@@ -7613,7 +7600,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2015</v>
@@ -7627,7 +7614,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2015</v>
@@ -7641,7 +7628,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2015</v>
@@ -7655,7 +7642,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2014</v>
@@ -7669,7 +7656,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2014</v>
@@ -7683,7 +7670,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2014</v>
@@ -7697,7 +7684,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2010</v>
@@ -7711,7 +7698,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2010</v>
@@ -7725,7 +7712,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2010</v>
@@ -7739,7 +7726,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2010</v>
@@ -7753,7 +7740,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2011</v>
@@ -7767,7 +7754,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2011</v>
@@ -7781,7 +7768,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2010</v>
@@ -7795,7 +7782,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2010</v>
@@ -7809,7 +7796,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2010</v>
@@ -7823,7 +7810,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2010</v>
@@ -7837,7 +7824,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2014</v>
@@ -7851,7 +7838,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2014</v>
@@ -7865,7 +7852,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2014</v>
@@ -7879,7 +7866,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2014</v>
@@ -7893,7 +7880,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2014</v>
@@ -7907,7 +7894,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2014</v>
@@ -7921,7 +7908,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2014</v>
@@ -7935,7 +7922,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2014</v>
@@ -7949,7 +7936,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2014</v>
@@ -7963,7 +7950,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2014</v>
@@ -7977,7 +7964,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2014</v>
@@ -7991,7 +7978,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2014</v>
@@ -8005,7 +7992,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2014</v>
@@ -8019,7 +8006,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>2014</v>
@@ -8033,7 +8020,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2011</v>
@@ -8047,7 +8034,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2011</v>
@@ -8061,7 +8048,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>2011</v>
@@ -8075,7 +8062,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2011</v>
@@ -8089,7 +8076,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2011</v>
@@ -8103,7 +8090,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2014</v>
@@ -8117,7 +8104,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2011</v>
@@ -8131,7 +8118,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2011</v>
@@ -8145,7 +8132,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2011</v>
@@ -8159,7 +8146,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2011</v>
@@ -8173,7 +8160,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>2011</v>
@@ -8187,7 +8174,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2010</v>
@@ -8201,7 +8188,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2010</v>
@@ -8215,7 +8202,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2015</v>
@@ -8229,7 +8216,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2015</v>
@@ -8243,7 +8230,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2015</v>
@@ -8257,7 +8244,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2015</v>
@@ -8271,7 +8258,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2014</v>
@@ -8285,7 +8272,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2014</v>
@@ -8299,7 +8286,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>2014</v>
@@ -8313,7 +8300,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2014</v>
@@ -8327,7 +8314,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2014</v>
@@ -8341,7 +8328,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2011</v>
@@ -8355,7 +8342,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>2011</v>
@@ -8369,7 +8356,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>2011</v>
@@ -8383,7 +8370,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2011</v>
@@ -8397,7 +8384,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2009</v>
@@ -8411,7 +8398,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2009</v>
@@ -8425,7 +8412,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2009</v>
@@ -8439,7 +8426,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2015</v>
@@ -8453,7 +8440,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>2015</v>
@@ -8467,7 +8454,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2015</v>
@@ -8481,7 +8468,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>2015</v>
@@ -8495,7 +8482,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2011</v>
@@ -8509,7 +8496,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>2011</v>
@@ -8523,7 +8510,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2011</v>
@@ -8537,7 +8524,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2011</v>
@@ -8551,7 +8538,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>2015</v>
@@ -8565,7 +8552,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2015</v>
@@ -8579,7 +8566,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2015</v>
@@ -8593,7 +8580,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>2015</v>
@@ -8607,7 +8594,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2015</v>
@@ -8621,7 +8608,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2015</v>
@@ -8635,7 +8622,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>2015</v>
@@ -8649,7 +8636,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>2015</v>
@@ -8663,7 +8650,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2015</v>
@@ -8677,7 +8664,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>2015</v>
@@ -8691,7 +8678,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>2015</v>
@@ -8705,7 +8692,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>2015</v>
@@ -8719,7 +8706,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2010</v>
@@ -8733,7 +8720,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2010</v>
@@ -8747,7 +8734,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>2010</v>
@@ -8761,7 +8748,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2010</v>
@@ -8775,7 +8762,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2013</v>
@@ -8789,7 +8776,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>2013</v>
@@ -8803,7 +8790,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2013</v>
@@ -8817,7 +8804,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>2013</v>
@@ -8831,7 +8818,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2013</v>
@@ -8845,7 +8832,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>2011</v>
@@ -8859,7 +8846,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>2016</v>
@@ -8873,7 +8860,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>2014</v>
@@ -8887,7 +8874,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2014</v>
@@ -8901,7 +8888,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>2013</v>
@@ -8915,7 +8902,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2013</v>
@@ -8929,7 +8916,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2013</v>
@@ -8943,7 +8930,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2013</v>
@@ -8957,7 +8944,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2013</v>
@@ -8971,7 +8958,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>2013</v>
@@ -8985,7 +8972,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>2013</v>
@@ -8999,7 +8986,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>2013</v>
@@ -9013,7 +9000,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>2013</v>
@@ -9027,7 +9014,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>2013</v>
@@ -9041,7 +9028,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2016</v>
@@ -9055,7 +9042,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>2016</v>
@@ -9069,7 +9056,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>2016</v>
@@ -9083,7 +9070,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>2016</v>
@@ -9097,7 +9084,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>2016</v>
@@ -9111,7 +9098,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>2016</v>
@@ -9125,7 +9112,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>2016</v>
@@ -9139,7 +9126,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2016</v>
@@ -9153,7 +9140,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2012</v>
@@ -9167,7 +9154,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>2012</v>
@@ -9181,7 +9168,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>2012</v>
@@ -9195,7 +9182,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>2012</v>
@@ -9209,7 +9196,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2012</v>
@@ -9223,7 +9210,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>2010</v>
@@ -9237,7 +9224,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>2010</v>
@@ -9251,7 +9238,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2010</v>
@@ -9265,7 +9252,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>2010</v>
@@ -9279,7 +9266,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2010</v>
@@ -9293,7 +9280,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>2014</v>
@@ -9307,7 +9294,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>2014</v>
@@ -9321,7 +9308,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2014</v>
@@ -9335,7 +9322,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>2014</v>
@@ -9349,7 +9336,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>2014</v>
@@ -9363,7 +9350,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>2014</v>
@@ -9377,7 +9364,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>2014</v>
@@ -9391,7 +9378,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2014</v>
@@ -9405,7 +9392,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2014</v>
@@ -9419,7 +9406,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>2014</v>
@@ -9433,7 +9420,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2014</v>
@@ -9447,7 +9434,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>2014</v>
@@ -9461,7 +9448,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>2014</v>
@@ -9475,7 +9462,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>2014</v>
@@ -9489,7 +9476,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>2014</v>
@@ -9503,7 +9490,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>2010</v>
@@ -9517,7 +9504,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2010</v>
@@ -9531,7 +9518,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>2010</v>
@@ -9545,7 +9532,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2010</v>
@@ -9559,7 +9546,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2010</v>
@@ -9573,7 +9560,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>2010</v>
@@ -9587,7 +9574,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>2010</v>
@@ -9601,7 +9588,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>2010</v>
@@ -9615,7 +9602,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2010</v>
@@ -9629,7 +9616,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2014</v>
@@ -9643,7 +9630,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>2014</v>
@@ -9657,7 +9644,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>2014</v>
@@ -9671,7 +9658,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2011</v>
@@ -9685,7 +9672,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2011</v>
@@ -9699,7 +9686,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>2012</v>
@@ -9713,7 +9700,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>2012</v>
@@ -9727,7 +9714,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2012</v>
@@ -9741,7 +9728,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2012</v>
@@ -9755,7 +9742,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>2012</v>
@@ -9769,7 +9756,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>2012</v>
@@ -9783,7 +9770,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>2012</v>
@@ -9797,7 +9784,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2015</v>
@@ -9811,7 +9798,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>2015</v>
@@ -9825,7 +9812,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>2015</v>
@@ -9839,7 +9826,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>2015</v>
@@ -9853,7 +9840,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>2015</v>
@@ -9867,7 +9854,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2010</v>
@@ -9881,7 +9868,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>2010</v>
@@ -9895,7 +9882,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>2010</v>
@@ -9909,7 +9896,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2011</v>
@@ -9923,7 +9910,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>2011</v>
@@ -9937,7 +9924,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>2011</v>
@@ -9951,7 +9938,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>2011</v>
@@ -9965,7 +9952,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2011</v>
@@ -9979,7 +9966,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2011</v>
@@ -9993,7 +9980,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>2011</v>
@@ -10007,7 +9994,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>2011</v>
@@ -10021,7 +10008,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2015</v>
@@ -10035,7 +10022,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>2015</v>
@@ -10049,7 +10036,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>2015</v>
@@ -10063,7 +10050,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>2015</v>
@@ -10077,7 +10064,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2012</v>
@@ -10091,7 +10078,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2012</v>
@@ -10105,7 +10092,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>2012</v>
@@ -10119,7 +10106,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>2012</v>
@@ -10133,7 +10120,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>2012</v>
@@ -10147,7 +10134,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2012</v>
@@ -10161,7 +10148,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>2010</v>
@@ -10175,7 +10162,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>2010</v>
@@ -10189,7 +10176,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>2010</v>
@@ -10203,7 +10190,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2010</v>
@@ -10217,7 +10204,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2013</v>
@@ -10231,7 +10218,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>2013</v>
@@ -10245,7 +10232,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>2013</v>
@@ -10259,7 +10246,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2013</v>
@@ -10290,17 +10277,16 @@
   <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10308,18 +10294,18 @@
         <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>392</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2012</v>
@@ -10333,7 +10319,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2012</v>
@@ -10347,7 +10333,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2012</v>
@@ -10361,7 +10347,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2012</v>
@@ -10375,7 +10361,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2012</v>
@@ -10389,7 +10375,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2012</v>
@@ -10403,7 +10389,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2012</v>
@@ -10417,7 +10403,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2012</v>
@@ -10431,7 +10417,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2012</v>
@@ -10445,7 +10431,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2012</v>
@@ -10459,7 +10445,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2012</v>
@@ -10473,7 +10459,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>2012</v>
@@ -10487,7 +10473,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2012</v>
@@ -10501,7 +10487,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2012</v>
@@ -10515,7 +10501,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2012</v>
@@ -10529,7 +10515,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2011</v>
@@ -10543,7 +10529,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2011</v>
@@ -10557,7 +10543,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2011</v>
@@ -10571,7 +10557,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>2011</v>
@@ -10585,7 +10571,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2011</v>
@@ -10599,7 +10585,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2015</v>
@@ -10613,7 +10599,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>2015</v>
@@ -10627,7 +10613,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2015</v>
@@ -10641,7 +10627,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2015</v>
@@ -10655,7 +10641,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2015</v>
@@ -10669,7 +10655,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2014</v>
@@ -10683,7 +10669,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2014</v>
@@ -10697,7 +10683,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2014</v>
@@ -10711,7 +10697,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2010</v>
@@ -10725,7 +10711,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2010</v>
@@ -10739,7 +10725,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2010</v>
@@ -10753,7 +10739,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2010</v>
@@ -10767,7 +10753,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2011</v>
@@ -10781,7 +10767,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2011</v>
@@ -10795,7 +10781,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2010</v>
@@ -10809,7 +10795,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2010</v>
@@ -10823,7 +10809,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2010</v>
@@ -10837,7 +10823,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2010</v>
@@ -10851,7 +10837,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2014</v>
@@ -10865,7 +10851,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2014</v>
@@ -10879,7 +10865,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2014</v>
@@ -10893,7 +10879,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2014</v>
@@ -10907,7 +10893,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2014</v>
@@ -10921,7 +10907,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2014</v>
@@ -10935,7 +10921,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2014</v>
@@ -10949,7 +10935,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2014</v>
@@ -10963,7 +10949,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>2014</v>
@@ -10977,7 +10963,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>2014</v>
@@ -10991,7 +10977,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2014</v>
@@ -11005,7 +10991,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>2014</v>
@@ -11019,7 +11005,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>2014</v>
@@ -11033,7 +11019,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>2014</v>
@@ -11047,7 +11033,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2011</v>
@@ -11061,7 +11047,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2011</v>
@@ -11075,7 +11061,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>2011</v>
@@ -11089,7 +11075,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>2011</v>
@@ -11103,7 +11089,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>2011</v>
@@ -11117,7 +11103,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2014</v>
@@ -11131,7 +11117,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2011</v>
@@ -11145,7 +11131,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2011</v>
@@ -11159,7 +11145,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2011</v>
@@ -11173,7 +11159,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2011</v>
@@ -11187,7 +11173,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>2011</v>
@@ -11201,7 +11187,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2010</v>
@@ -11215,7 +11201,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2010</v>
@@ -11229,7 +11215,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2015</v>
@@ -11243,7 +11229,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2015</v>
@@ -11257,7 +11243,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2015</v>
@@ -11271,7 +11257,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2015</v>
@@ -11285,7 +11271,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2014</v>
@@ -11299,7 +11285,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2014</v>
@@ -11313,7 +11299,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>2014</v>
@@ -11327,7 +11313,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2014</v>
@@ -11341,7 +11327,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2014</v>
@@ -11355,7 +11341,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2011</v>
@@ -11369,7 +11355,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>2011</v>
@@ -11383,7 +11369,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>2011</v>
@@ -11397,7 +11383,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2011</v>
@@ -11411,7 +11397,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2009</v>
@@ -11425,7 +11411,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2009</v>
@@ -11439,7 +11425,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2009</v>
@@ -11453,7 +11439,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2015</v>
@@ -11467,7 +11453,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>2015</v>
@@ -11481,7 +11467,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2015</v>
@@ -11495,7 +11481,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>2015</v>
@@ -11509,7 +11495,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2011</v>
@@ -11523,7 +11509,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>2011</v>
@@ -11537,7 +11523,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2011</v>
@@ -11551,7 +11537,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>2011</v>
@@ -11565,7 +11551,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>2015</v>
@@ -11579,7 +11565,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2015</v>
@@ -11593,7 +11579,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2015</v>
@@ -11607,7 +11593,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>2015</v>
@@ -11621,7 +11607,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2015</v>
@@ -11635,7 +11621,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2015</v>
@@ -11649,7 +11635,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>2015</v>
@@ -11663,7 +11649,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>2015</v>
@@ -11677,7 +11663,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2015</v>
@@ -11691,7 +11677,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>2015</v>
@@ -11705,7 +11691,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>2015</v>
@@ -11719,7 +11705,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>2015</v>
@@ -11733,7 +11719,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2010</v>
@@ -11747,7 +11733,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2010</v>
@@ -11761,7 +11747,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>2010</v>
@@ -11775,7 +11761,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2010</v>
@@ -11789,7 +11775,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2013</v>
@@ -11803,7 +11789,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>2013</v>
@@ -11817,7 +11803,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2013</v>
@@ -11831,7 +11817,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>2013</v>
@@ -11845,7 +11831,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2013</v>
@@ -11859,7 +11845,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>2011</v>
@@ -11873,7 +11859,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>2016</v>
@@ -11887,7 +11873,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>2014</v>
@@ -11901,7 +11887,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2014</v>
@@ -11915,7 +11901,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>2013</v>
@@ -11929,7 +11915,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2013</v>
@@ -11943,7 +11929,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2013</v>
@@ -11957,7 +11943,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2013</v>
@@ -11971,7 +11957,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2013</v>
@@ -11985,7 +11971,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>2013</v>
@@ -11999,7 +11985,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>2013</v>
@@ -12013,7 +11999,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>2013</v>
@@ -12027,7 +12013,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>2013</v>
@@ -12041,7 +12027,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>2013</v>
@@ -12055,7 +12041,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2016</v>
@@ -12069,7 +12055,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>2016</v>
@@ -12083,7 +12069,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>2016</v>
@@ -12097,7 +12083,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>2016</v>
@@ -12111,7 +12097,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>2016</v>
@@ -12125,7 +12111,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>2016</v>
@@ -12139,7 +12125,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>2016</v>
@@ -12153,7 +12139,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2016</v>
@@ -12167,7 +12153,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2012</v>
@@ -12181,7 +12167,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>2012</v>
@@ -12195,7 +12181,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>2012</v>
@@ -12209,7 +12195,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>2012</v>
@@ -12223,7 +12209,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2012</v>
@@ -12237,7 +12223,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>2010</v>
@@ -12251,7 +12237,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>2010</v>
@@ -12265,7 +12251,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2010</v>
@@ -12279,7 +12265,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>2010</v>
@@ -12293,7 +12279,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2010</v>
@@ -12307,7 +12293,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>2014</v>
@@ -12321,7 +12307,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>2014</v>
@@ -12335,7 +12321,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2014</v>
@@ -12349,7 +12335,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>2014</v>
@@ -12363,7 +12349,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>2014</v>
@@ -12377,7 +12363,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>2014</v>
@@ -12391,7 +12377,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>2014</v>
@@ -12405,7 +12391,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2014</v>
@@ -12419,7 +12405,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>2014</v>
@@ -12433,7 +12419,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>2014</v>
@@ -12447,7 +12433,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2014</v>
@@ -12461,7 +12447,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>2014</v>
@@ -12475,7 +12461,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>2014</v>
@@ -12489,7 +12475,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>2014</v>
@@ -12503,7 +12489,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>2014</v>
@@ -12517,7 +12503,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>2010</v>
@@ -12531,7 +12517,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2010</v>
@@ -12545,7 +12531,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>2010</v>
@@ -12559,7 +12545,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2010</v>
@@ -12573,7 +12559,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2010</v>
@@ -12587,7 +12573,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>2010</v>
@@ -12601,7 +12587,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>2010</v>
@@ -12615,7 +12601,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>2010</v>
@@ -12629,7 +12615,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2010</v>
@@ -12643,7 +12629,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2014</v>
@@ -12657,7 +12643,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>2014</v>
@@ -12671,7 +12657,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>2014</v>
@@ -12685,7 +12671,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2011</v>
@@ -12699,7 +12685,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>2011</v>
@@ -12713,7 +12699,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>2012</v>
@@ -12727,7 +12713,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>2012</v>
@@ -12741,7 +12727,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2012</v>
@@ -12755,7 +12741,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2012</v>
@@ -12769,7 +12755,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>2012</v>
@@ -12783,7 +12769,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>2012</v>
@@ -12797,7 +12783,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>2012</v>
@@ -12811,7 +12797,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2015</v>
@@ -12825,7 +12811,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>2015</v>
@@ -12839,7 +12825,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>2015</v>
@@ -12853,7 +12839,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>2015</v>
@@ -12867,7 +12853,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>2015</v>
@@ -12881,7 +12867,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2010</v>
@@ -12895,7 +12881,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>2010</v>
@@ -12909,7 +12895,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>2010</v>
@@ -12923,7 +12909,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2011</v>
@@ -12937,7 +12923,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>2011</v>
@@ -12951,7 +12937,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>2011</v>
@@ -12965,7 +12951,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>2011</v>
@@ -12979,7 +12965,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2011</v>
@@ -12993,7 +12979,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2011</v>
@@ -13007,7 +12993,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>2011</v>
@@ -13021,7 +13007,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>2011</v>
@@ -13035,7 +13021,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2015</v>
@@ -13049,7 +13035,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>2015</v>
@@ -13063,7 +13049,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>2015</v>
@@ -13077,7 +13063,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>2015</v>
@@ -13091,7 +13077,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2012</v>
@@ -13105,7 +13091,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2012</v>
@@ -13119,7 +13105,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>2012</v>
@@ -13133,7 +13119,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>2012</v>
@@ -13147,7 +13133,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>2012</v>
@@ -13161,7 +13147,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2012</v>
@@ -13175,7 +13161,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>2010</v>
@@ -13189,7 +13175,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>2010</v>
@@ -13203,7 +13189,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>2010</v>
@@ -13217,7 +13203,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2010</v>
@@ -13231,7 +13217,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2013</v>
@@ -13245,7 +13231,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>2013</v>
@@ -13259,7 +13245,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>2013</v>
@@ -13273,7 +13259,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2013</v>
@@ -13304,13 +13290,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="64" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13379,27 +13364,26 @@
   </sheetPr>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -13407,7 +13391,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>14</v>
@@ -13415,7 +13399,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>14</v>
@@ -13423,7 +13407,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>14</v>
@@ -13431,7 +13415,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>12</v>
@@ -13439,7 +13423,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>14</v>
@@ -13447,7 +13431,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>14</v>
@@ -13455,7 +13439,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>14</v>
@@ -13463,7 +13447,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14</v>
@@ -13471,7 +13455,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>21</v>
@@ -13479,7 +13463,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -13487,7 +13471,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -13495,7 +13479,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>14</v>
@@ -13503,7 +13487,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>14</v>
@@ -13511,7 +13495,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>14</v>
@@ -13519,7 +13503,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>14</v>
@@ -13527,7 +13511,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>14</v>
@@ -13535,7 +13519,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>14</v>
@@ -13543,7 +13527,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>14</v>
@@ -13551,7 +13535,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>14</v>
@@ -13559,7 +13543,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -13567,7 +13551,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>16</v>
@@ -13575,7 +13559,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>10</v>
@@ -13583,7 +13567,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>14</v>
@@ -13591,7 +13575,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>14</v>
@@ -13599,7 +13583,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>14</v>
@@ -13607,7 +13591,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10</v>
@@ -13615,7 +13599,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>14</v>
@@ -13623,7 +13607,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>10</v>
@@ -13631,7 +13615,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>11</v>
@@ -13639,7 +13623,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>6</v>
@@ -13647,7 +13631,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>17</v>
@@ -13655,7 +13639,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>14</v>
@@ -13663,7 +13647,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>14</v>
@@ -13671,7 +13655,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>14</v>
@@ -13679,7 +13663,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>14</v>
@@ -13687,7 +13671,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>14</v>
@@ -13695,7 +13679,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>14</v>
@@ -13703,7 +13687,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>14</v>
@@ -13711,7 +13695,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>14</v>
@@ -13719,7 +13703,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>22</v>
@@ -13727,7 +13711,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>4</v>
@@ -13735,7 +13719,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>5</v>
@@ -13743,7 +13727,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>7</v>
@@ -13751,7 +13735,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>14</v>
@@ -13759,7 +13743,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14</v>
@@ -13767,7 +13751,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>13</v>
@@ -13775,7 +13759,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>18</v>
@@ -13783,7 +13767,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>14</v>
@@ -13791,7 +13775,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>10</v>
@@ -13799,7 +13783,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>14</v>
@@ -13807,7 +13791,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>14</v>
@@ -13815,7 +13799,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>14</v>
@@ -13823,7 +13807,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>20</v>
@@ -13831,7 +13815,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>20</v>
@@ -13839,7 +13823,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>14</v>
@@ -13847,7 +13831,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>14</v>
@@ -13855,7 +13839,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>14</v>
@@ -13863,7 +13847,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>14</v>
@@ -13871,7 +13855,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>14</v>
@@ -13879,7 +13863,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>15</v>
@@ -13887,7 +13871,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>14</v>
@@ -13895,7 +13879,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>14</v>
@@ -13903,7 +13887,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>14</v>
@@ -13911,7 +13895,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>14</v>
@@ -13919,7 +13903,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>14</v>
@@ -13927,7 +13911,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>13</v>
@@ -13935,7 +13919,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>14</v>
@@ -13943,7 +13927,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>8</v>
@@ -13951,7 +13935,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>8</v>
@@ -13959,7 +13943,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>9</v>
@@ -13989,9 +13973,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="64" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14184,10 +14167,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14462,10 +14444,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14692,10 +14673,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14922,10 +14902,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15176,10 +15155,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15406,10 +15384,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/auxiliary_data/mics_dictionary_setcode.xlsx
+++ b/auxiliary_data/mics_dictionary_setcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="19"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" state="visible" r:id="rId2"/>
@@ -1539,19 +1539,19 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,9 +2312,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,9 +2542,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,11 +2772,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,14 +2888,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="64" min="8" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,9 +3030,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,16 +3246,17 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="64" min="4" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,9 +3777,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,11 +4263,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,11 +7277,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10282,11 +10291,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13295,7 +13305,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="64" min="1" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13364,13 +13375,14 @@
   </sheetPr>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13973,8 +13985,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.25"/>
+    <col collapsed="false" hidden="false" max="64" min="2" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14167,9 +14180,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14444,9 +14458,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14673,9 +14688,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14902,9 +14918,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15155,9 +15172,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15384,9 +15402,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/auxiliary_data/mics_dictionary_setcode.xlsx
+++ b/auxiliary_data/mics_dictionary_setcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" state="visible" r:id="rId2"/>
@@ -1539,19 +1539,20 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,10 +2313,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,10 +2543,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,12 +2773,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,15 +2889,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="64" min="8" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="64" min="8" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,10 +3031,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,11 +3253,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="64" min="4" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="64" min="4" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,10 +3778,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,12 +4264,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,12 +7278,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10291,12 +10292,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="64" min="5" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13305,8 +13306,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="64" min="1" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="64" min="1" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13375,14 +13376,14 @@
   </sheetPr>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13985,9 +13986,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.25"/>
-    <col collapsed="false" hidden="false" max="64" min="2" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="64" min="2" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14180,10 +14181,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14458,10 +14459,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14688,10 +14689,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14918,10 +14919,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15172,10 +15173,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15402,10 +15403,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="64" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="65" style="1" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/auxiliary_data/mics_dictionary_setcode.xlsx
+++ b/auxiliary_data/mics_dictionary_setcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="458">
   <si>
     <t xml:space="preserve">original_name</t>
   </si>
@@ -795,6 +795,36 @@
   </si>
   <si>
     <t xml:space="preserve">white nile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west darfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west darfur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south darfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south darfur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">north darfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">north darfur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central darfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central darfur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">east darfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">east darfur</t>
   </si>
   <si>
     <t xml:space="preserve">Thailand</t>
@@ -1485,11 +1515,11 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.09"/>
@@ -2867,8 +2897,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3251,10 +3281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3510,95 +3540,95 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>253</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>268</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>270</v>
@@ -3609,123 +3639,178 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="C37" s="0" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B43" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C43" s="0" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3763,319 +3848,319 @@
         <v>68</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4104,7 +4189,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>122</v>
@@ -4112,7 +4197,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>122</v>
@@ -4120,47 +4205,47 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>195</v>
@@ -4176,7 +4261,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>195</v>
@@ -4184,7 +4269,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>195</v>
@@ -4192,7 +4277,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>195</v>
@@ -4247,18 +4332,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -4269,7 +4354,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -4280,7 +4365,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -4291,7 +4376,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4302,7 +4387,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -4313,7 +4398,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -4324,7 +4409,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -4335,7 +4420,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -4346,7 +4431,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -4357,7 +4442,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -4368,7 +4453,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -4379,7 +4464,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -4390,7 +4475,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -4401,7 +4486,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -4412,7 +4497,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -4423,7 +4508,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -4434,7 +4519,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -4445,7 +4530,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -4456,7 +4541,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
@@ -4467,7 +4552,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>7</v>
@@ -4478,7 +4563,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -4489,7 +4574,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -4500,7 +4585,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -4511,7 +4596,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -4522,7 +4607,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>96</v>
@@ -4533,7 +4618,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -4544,7 +4629,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -4555,7 +4640,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
@@ -4566,7 +4651,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -4577,7 +4662,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -4588,7 +4673,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -4599,7 +4684,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
@@ -4610,7 +4695,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -4621,7 +4706,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -4632,7 +4717,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -4643,7 +4728,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>3</v>
@@ -4654,7 +4739,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>4</v>
@@ -4665,7 +4750,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>5</v>
@@ -4676,7 +4761,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2</v>
@@ -4687,7 +4772,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>3</v>
@@ -4698,7 +4783,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>4</v>
@@ -4709,7 +4794,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>5</v>
@@ -4720,7 +4805,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -4731,7 +4816,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2</v>
@@ -4742,7 +4827,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10</v>
@@ -4753,7 +4838,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>11</v>
@@ -4764,7 +4849,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>12</v>
@@ -4775,7 +4860,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>13</v>
@@ -4786,7 +4871,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>14</v>
@@ -4797,7 +4882,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>15</v>
@@ -4808,7 +4893,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>16</v>
@@ -4819,7 +4904,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>17</v>
@@ -4830,7 +4915,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -4841,7 +4926,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3</v>
@@ -4852,7 +4937,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>4</v>
@@ -4863,7 +4948,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>5</v>
@@ -4874,7 +4959,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>6</v>
@@ -4885,7 +4970,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>4</v>
@@ -4896,7 +4981,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -4907,7 +4992,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
@@ -4918,7 +5003,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -4929,7 +5014,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>6</v>
@@ -4940,7 +5025,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>7</v>
@@ -4951,7 +5036,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>3</v>
@@ -4962,7 +5047,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>4</v>
@@ -4973,7 +5058,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -4984,7 +5069,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>3</v>
@@ -4995,7 +5080,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>4</v>
@@ -5006,7 +5091,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>5</v>
@@ -5017,7 +5102,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2</v>
@@ -5028,7 +5113,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>3</v>
@@ -5039,7 +5124,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4</v>
@@ -5050,7 +5135,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>5</v>
@@ -5061,7 +5146,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>6</v>
@@ -5072,7 +5157,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2</v>
@@ -5083,7 +5168,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>3</v>
@@ -5094,7 +5179,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -5105,7 +5190,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>5</v>
@@ -5116,7 +5201,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2</v>
@@ -5127,7 +5212,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>3</v>
@@ -5138,7 +5223,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>4</v>
@@ -5149,7 +5234,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2</v>
@@ -5160,7 +5245,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>3</v>
@@ -5171,7 +5256,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>4</v>
@@ -5182,7 +5267,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>5</v>
@@ -5193,7 +5278,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>3</v>
@@ -5204,7 +5289,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>4</v>
@@ -5215,7 +5300,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -5226,7 +5311,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -5237,7 +5322,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>4</v>
@@ -5248,7 +5333,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>5</v>
@@ -5259,7 +5344,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2</v>
@@ -5270,7 +5355,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>3</v>
@@ -5281,7 +5366,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -5292,7 +5377,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -5303,7 +5388,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>6</v>
@@ -5314,7 +5399,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>7</v>
@@ -5325,7 +5410,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>8</v>
@@ -5336,7 +5421,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>9</v>
@@ -5347,7 +5432,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>10</v>
@@ -5358,7 +5443,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>11</v>
@@ -5369,7 +5454,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1</v>
@@ -5380,7 +5465,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2</v>
@@ -5391,7 +5476,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>3</v>
@@ -5402,7 +5487,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>4</v>
@@ -5413,7 +5498,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2</v>
@@ -5424,7 +5509,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>3</v>
@@ -5435,7 +5520,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>4</v>
@@ -5446,7 +5531,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1</v>
@@ -5457,7 +5542,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2</v>
@@ -5468,7 +5553,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>4</v>
@@ -5479,7 +5564,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>4</v>
@@ -5490,7 +5575,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>1</v>
@@ -5501,7 +5586,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2</v>
@@ -5512,7 +5597,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>1</v>
@@ -5523,7 +5608,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2</v>
@@ -5534,7 +5619,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>3</v>
@@ -5545,7 +5630,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -5556,7 +5641,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -5567,7 +5652,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>6</v>
@@ -5578,7 +5663,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>7</v>
@@ -5589,7 +5674,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>8</v>
@@ -5600,7 +5685,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>9</v>
@@ -5611,7 +5696,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>10</v>
@@ -5622,7 +5707,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0</v>
@@ -5633,7 +5718,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>1</v>
@@ -5644,7 +5729,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>2</v>
@@ -5655,7 +5740,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>3</v>
@@ -5666,7 +5751,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>4</v>
@@ -5677,7 +5762,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>5</v>
@@ -5688,7 +5773,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>6</v>
@@ -5699,7 +5784,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -5710,7 +5795,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2</v>
@@ -5721,7 +5806,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>3</v>
@@ -5732,7 +5817,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>4</v>
@@ -5743,7 +5828,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -5754,7 +5839,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -5765,7 +5850,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0</v>
@@ -5776,7 +5861,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>1</v>
@@ -5787,7 +5872,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2</v>
@@ -5798,7 +5883,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>3</v>
@@ -5809,7 +5894,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -5820,7 +5905,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0</v>
@@ -5831,7 +5916,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>1</v>
@@ -5842,7 +5927,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2</v>
@@ -5853,7 +5938,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>3</v>
@@ -5864,7 +5949,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>4</v>
@@ -5875,7 +5960,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0</v>
@@ -5886,7 +5971,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>1</v>
@@ -5897,7 +5982,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2</v>
@@ -5908,7 +5993,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>3</v>
@@ -5919,7 +6004,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>4</v>
@@ -5930,7 +6015,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>5</v>
@@ -5941,7 +6026,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -5952,7 +6037,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -5963,7 +6048,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>8</v>
@@ -5974,7 +6059,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>9</v>
@@ -5985,7 +6070,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>10</v>
@@ -5996,7 +6081,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>11</v>
@@ -6007,7 +6092,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>12</v>
@@ -6018,7 +6103,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2</v>
@@ -6029,7 +6114,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>3</v>
@@ -6040,7 +6125,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>4</v>
@@ -6051,7 +6136,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>5</v>
@@ -6062,7 +6147,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>6</v>
@@ -6073,7 +6158,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>7</v>
@@ -6084,7 +6169,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2</v>
@@ -6095,7 +6180,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3</v>
@@ -6106,7 +6191,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>4</v>
@@ -6117,7 +6202,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2</v>
@@ -6128,7 +6213,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>3</v>
@@ -6139,7 +6224,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>4</v>
@@ -6150,7 +6235,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>1</v>
@@ -6161,7 +6246,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2</v>
@@ -6172,7 +6257,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2</v>
@@ -6183,7 +6268,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>3</v>
@@ -6194,7 +6279,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>4</v>
@@ -6205,7 +6290,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>5</v>
@@ -6216,7 +6301,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>6</v>
@@ -6227,7 +6312,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>7</v>
@@ -6238,7 +6323,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>8</v>
@@ -6249,7 +6334,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>3</v>
@@ -6260,7 +6345,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
@@ -6271,7 +6356,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>5</v>
@@ -6282,7 +6367,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>6</v>
@@ -6293,7 +6378,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>7</v>
@@ -6304,7 +6389,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2</v>
@@ -6315,7 +6400,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>3</v>
@@ -6326,7 +6411,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>4</v>
@@ -6337,7 +6422,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>3</v>
@@ -6348,7 +6433,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>4</v>
@@ -6359,7 +6444,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2</v>
@@ -6370,7 +6455,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>3</v>
@@ -6381,7 +6466,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>4</v>
@@ -6392,7 +6477,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>5</v>
@@ -6403,7 +6488,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>6</v>
@@ -6414,7 +6499,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>7</v>
@@ -6425,7 +6510,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>1</v>
@@ -6436,7 +6521,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2</v>
@@ -6447,7 +6532,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>3</v>
@@ -6458,7 +6543,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>4</v>
@@ -6469,7 +6554,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>3</v>
@@ -6480,7 +6565,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>4</v>
@@ -6491,7 +6576,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>5</v>
@@ -6502,7 +6587,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3</v>
@@ -6513,7 +6598,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>4</v>
@@ -6524,7 +6609,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>5</v>
@@ -6535,7 +6620,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2</v>
@@ -6546,7 +6631,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>3</v>
@@ -6557,7 +6642,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>4</v>
@@ -6568,7 +6653,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>5</v>
@@ -6579,7 +6664,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2</v>
@@ -6590,7 +6675,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>3</v>
@@ -6601,7 +6686,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>4</v>
@@ -6612,7 +6697,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>5</v>
@@ -6623,7 +6708,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>1</v>
@@ -6634,7 +6719,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>2</v>
@@ -6645,7 +6730,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>3</v>
@@ -6656,7 +6741,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>4</v>
@@ -6667,7 +6752,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>5</v>
@@ -6678,7 +6763,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>1</v>
@@ -6689,7 +6774,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>2</v>
@@ -6700,7 +6785,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>3</v>
@@ -6711,7 +6796,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>4</v>
@@ -6722,7 +6807,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>5</v>
@@ -6733,7 +6818,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>6</v>
@@ -6744,7 +6829,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>7</v>
@@ -6755,7 +6840,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>8</v>
@@ -6766,7 +6851,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>1</v>
@@ -6777,7 +6862,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>2</v>
@@ -6788,7 +6873,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>3</v>
@@ -6799,7 +6884,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>4</v>
@@ -6810,7 +6895,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>5</v>
@@ -6821,7 +6906,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>6</v>
@@ -6832,7 +6917,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>7</v>
@@ -6843,7 +6928,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>8</v>
@@ -6868,10 +6953,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6885,18 +6970,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -6907,7 +6992,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -6918,7 +7003,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -6929,7 +7014,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6940,7 +7025,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -6951,7 +7036,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -6962,7 +7047,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -6973,7 +7058,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -6984,7 +7069,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -6995,7 +7080,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -7006,7 +7091,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -7017,7 +7102,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -7028,7 +7113,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -7039,7 +7124,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -7050,7 +7135,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -7061,7 +7146,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -7072,7 +7157,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -7083,7 +7168,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -7094,7 +7179,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
@@ -7105,7 +7190,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>7</v>
@@ -7116,7 +7201,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -7127,7 +7212,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -7138,7 +7223,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -7149,7 +7234,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -7160,7 +7245,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>96</v>
@@ -7171,7 +7256,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -7182,7 +7267,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -7193,7 +7278,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
@@ -7204,7 +7289,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -7215,7 +7300,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -7226,7 +7311,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -7237,7 +7322,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
@@ -7248,7 +7333,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -7259,7 +7344,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -7270,54 +7355,54 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>21</v>
@@ -7325,197 +7410,197 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3</v>
@@ -7523,40 +7608,40 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -7567,934 +7652,934 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>22</v>
@@ -8502,98 +8587,98 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>22</v>
@@ -8601,76 +8686,76 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>21</v>
@@ -8678,10 +8763,10 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>22</v>
@@ -8689,40 +8774,40 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2</v>
@@ -8733,7 +8818,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3</v>
@@ -8744,161 +8829,161 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
@@ -8909,131 +8994,131 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>24</v>
@@ -9041,128 +9126,128 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>5</v>
@@ -9173,40 +9258,40 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>5</v>
@@ -9217,21 +9302,21 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>22</v>
@@ -9239,21 +9324,21 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>3</v>
@@ -9261,199 +9346,111 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C222" s="0" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C223" s="0" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="B227" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C227" s="0" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B228" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C228" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B229" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C229" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B230" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C230" s="0" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B231" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C231" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B232" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C232" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B233" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C233" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B234" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C234" s="0" t="n">
         <v>51</v>
       </c>
     </row>
@@ -9473,10 +9470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A115" activeCellId="0" sqref="A115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9490,18 +9487,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -9512,7 +9509,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -9523,7 +9520,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -9534,7 +9531,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -9545,7 +9542,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -9556,7 +9553,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -9567,7 +9564,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -9578,7 +9575,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -9589,7 +9586,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -9600,7 +9597,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -9611,7 +9608,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -9622,7 +9619,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -9633,7 +9630,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -9644,7 +9641,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -9655,7 +9652,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -9666,7 +9663,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -9677,7 +9674,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -9688,7 +9685,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -9699,7 +9696,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
@@ -9710,7 +9707,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>7</v>
@@ -9721,7 +9718,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -9732,7 +9729,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -9743,7 +9740,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -9754,7 +9751,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -9765,7 +9762,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>96</v>
@@ -9776,7 +9773,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -9787,7 +9784,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -9798,7 +9795,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
@@ -9809,7 +9806,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -9820,7 +9817,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -9831,7 +9828,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -9842,7 +9839,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
@@ -9853,7 +9850,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -9864,7 +9861,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -9875,54 +9872,54 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>21</v>
@@ -9930,197 +9927,197 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>3</v>
@@ -10128,40 +10125,40 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -10172,934 +10169,934 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>22</v>
@@ -11107,98 +11104,98 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>22</v>
@@ -11206,76 +11203,76 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>21</v>
@@ -11283,10 +11280,10 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>22</v>
@@ -11294,40 +11291,40 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2</v>
@@ -11338,7 +11335,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3</v>
@@ -11349,161 +11346,161 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
@@ -11514,131 +11511,131 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>24</v>
@@ -11646,128 +11643,128 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>5</v>
@@ -11778,298 +11775,210 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C216" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222" s="0" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C223" s="0" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C225" s="0" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="B228" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C228" s="0" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B229" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C229" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B230" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C230" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B231" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C231" s="0" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B232" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C232" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B233" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C233" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B234" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C234" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B235" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C235" s="0" t="n">
         <v>51</v>
       </c>
     </row>
@@ -12168,25 +12077,25 @@
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -12194,7 +12103,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -12202,7 +12111,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -12210,7 +12119,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -12218,7 +12127,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
@@ -12226,7 +12135,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -12234,7 +12143,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
@@ -12242,7 +12151,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -12250,7 +12159,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8</v>
@@ -12258,7 +12167,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -12266,7 +12175,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>9</v>
@@ -12274,7 +12183,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>10</v>
@@ -12282,7 +12191,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10</v>
@@ -12290,7 +12199,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>10</v>
@@ -12298,7 +12207,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>10</v>
@@ -12306,7 +12215,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>11</v>
@@ -12314,7 +12223,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>12</v>
@@ -12322,7 +12231,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>13</v>
@@ -12330,7 +12239,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>13</v>
@@ -12338,7 +12247,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>14</v>
@@ -12346,7 +12255,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>14</v>
@@ -12354,7 +12263,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>14</v>
@@ -12362,7 +12271,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>14</v>
@@ -12370,7 +12279,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>14</v>
@@ -12378,7 +12287,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>14</v>
@@ -12386,7 +12295,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>14</v>
@@ -12394,7 +12303,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>14</v>
@@ -12402,7 +12311,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>14</v>
@@ -12410,7 +12319,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>14</v>
@@ -12418,7 +12327,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>14</v>
@@ -12426,7 +12335,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>14</v>
@@ -12434,7 +12343,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>14</v>
@@ -12442,7 +12351,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>14</v>
@@ -12450,7 +12359,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>14</v>
@@ -12458,7 +12367,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>14</v>
@@ -12466,7 +12375,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>14</v>
@@ -12474,7 +12383,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>14</v>
@@ -12482,7 +12391,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>14</v>
@@ -12490,7 +12399,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>14</v>
@@ -12498,7 +12407,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>14</v>
@@ -12506,7 +12415,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>14</v>
@@ -12514,7 +12423,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>14</v>
@@ -12522,7 +12431,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>14</v>
@@ -12530,7 +12439,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>14</v>
@@ -12538,7 +12447,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>14</v>
@@ -12546,7 +12455,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14</v>
@@ -12554,7 +12463,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>14</v>
@@ -12562,7 +12471,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>14</v>
@@ -12570,7 +12479,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>14</v>
@@ -12578,7 +12487,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>14</v>
@@ -12586,7 +12495,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>14</v>
@@ -12594,7 +12503,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>14</v>
@@ -12602,7 +12511,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>14</v>
@@ -12610,7 +12519,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>14</v>
@@ -12618,7 +12527,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>14</v>
@@ -12626,7 +12535,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>14</v>
@@ -12634,7 +12543,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>14</v>
@@ -12642,7 +12551,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>14</v>
@@ -12650,7 +12559,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>14</v>
@@ -12658,7 +12567,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>14</v>
@@ -12666,7 +12575,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>14</v>
@@ -12674,7 +12583,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>14</v>
@@ -12682,7 +12591,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>14</v>
@@ -12690,7 +12599,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>14</v>
@@ -12698,7 +12607,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>15</v>
@@ -12706,7 +12615,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>16</v>
@@ -12714,7 +12623,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>17</v>
@@ -12722,7 +12631,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>18</v>
@@ -12730,7 +12639,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>20</v>
@@ -12738,7 +12647,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>20</v>
@@ -12746,7 +12655,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>21</v>

--- a/auxiliary_data/mics_dictionary_setcode.xlsx
+++ b/auxiliary_data/mics_dictionary_setcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="479">
   <si>
     <t xml:space="preserve">original_name</t>
   </si>
@@ -999,15 +999,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ombella M'Poko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Df Edo Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF Edo. de Mexico</t>
   </si>
   <si>
     <t xml:space="preserve">religion_replace</t>
@@ -1591,7 +1582,7 @@
       <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.09"/>
@@ -3137,8 +3128,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3521,10 +3512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4040,17 +4031,6 @@
       </c>
       <c r="C46" s="0" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4071,7 +4051,7 @@
   </sheetPr>
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -4088,319 +4068,319 @@
         <v>68</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,7 +4409,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>134</v>
@@ -4437,7 +4417,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>134</v>
@@ -4445,47 +4425,47 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>207</v>
@@ -4501,7 +4481,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>207</v>
@@ -4509,7 +4489,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>207</v>
@@ -4517,7 +4497,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>207</v>
@@ -4572,18 +4552,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -4594,7 +4574,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -4605,7 +4585,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -4616,7 +4596,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4627,7 +4607,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -4638,7 +4618,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -4649,7 +4629,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -4660,7 +4640,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -4671,7 +4651,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -4682,7 +4662,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -4693,7 +4673,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -4704,7 +4684,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -4715,7 +4695,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -4726,7 +4706,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -4737,7 +4717,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -4748,7 +4728,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -4759,7 +4739,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -4770,7 +4750,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -4781,7 +4761,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
@@ -4792,7 +4772,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>7</v>
@@ -4803,7 +4783,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -4814,7 +4794,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -4825,7 +4805,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -4836,7 +4816,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -4847,7 +4827,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>96</v>
@@ -4858,7 +4838,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -4869,7 +4849,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -4880,7 +4860,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
@@ -4891,7 +4871,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -4902,7 +4882,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -4913,7 +4893,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -4924,7 +4904,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
@@ -4935,7 +4915,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -4946,7 +4926,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -4957,7 +4937,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -4968,7 +4948,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>3</v>
@@ -4979,7 +4959,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>4</v>
@@ -4990,7 +4970,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>5</v>
@@ -5001,7 +4981,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2</v>
@@ -5012,7 +4992,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>3</v>
@@ -5023,7 +5003,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>4</v>
@@ -5034,7 +5014,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>5</v>
@@ -5045,7 +5025,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -5056,7 +5036,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2</v>
@@ -5067,7 +5047,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10</v>
@@ -5078,7 +5058,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>11</v>
@@ -5089,7 +5069,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>12</v>
@@ -5100,7 +5080,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>13</v>
@@ -5111,7 +5091,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>14</v>
@@ -5122,7 +5102,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>15</v>
@@ -5133,7 +5113,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>16</v>
@@ -5144,7 +5124,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>17</v>
@@ -5155,7 +5135,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -5166,7 +5146,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3</v>
@@ -5177,7 +5157,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>4</v>
@@ -5188,7 +5168,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>5</v>
@@ -5199,7 +5179,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>6</v>
@@ -5210,7 +5190,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>4</v>
@@ -5221,7 +5201,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -5232,7 +5212,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
@@ -5243,7 +5223,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -5254,7 +5234,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>6</v>
@@ -5265,7 +5245,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>7</v>
@@ -5276,7 +5256,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>3</v>
@@ -5287,7 +5267,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>4</v>
@@ -5298,7 +5278,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -5309,7 +5289,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>3</v>
@@ -5320,7 +5300,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>4</v>
@@ -5331,7 +5311,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>5</v>
@@ -5342,7 +5322,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2</v>
@@ -5353,7 +5333,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>3</v>
@@ -5364,7 +5344,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4</v>
@@ -5375,7 +5355,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>5</v>
@@ -5386,7 +5366,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>6</v>
@@ -5397,7 +5377,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2</v>
@@ -5408,7 +5388,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>3</v>
@@ -5419,7 +5399,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -5430,7 +5410,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>5</v>
@@ -5441,7 +5421,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2</v>
@@ -5452,7 +5432,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>3</v>
@@ -5463,7 +5443,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>4</v>
@@ -5474,7 +5454,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2</v>
@@ -5485,7 +5465,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>3</v>
@@ -5496,7 +5476,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>4</v>
@@ -5507,7 +5487,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>5</v>
@@ -5518,7 +5498,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>3</v>
@@ -5529,7 +5509,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>4</v>
@@ -5540,7 +5520,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -5551,7 +5531,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -5562,7 +5542,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>4</v>
@@ -5573,7 +5553,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>5</v>
@@ -5584,7 +5564,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2</v>
@@ -5595,7 +5575,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>3</v>
@@ -5606,7 +5586,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -5617,7 +5597,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -5628,7 +5608,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>6</v>
@@ -5639,7 +5619,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>7</v>
@@ -5650,7 +5630,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>8</v>
@@ -5661,7 +5641,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>9</v>
@@ -5672,7 +5652,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>10</v>
@@ -5683,7 +5663,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>11</v>
@@ -5694,7 +5674,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1</v>
@@ -5705,7 +5685,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2</v>
@@ -5716,7 +5696,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>3</v>
@@ -5727,7 +5707,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>4</v>
@@ -5738,7 +5718,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2</v>
@@ -5749,7 +5729,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>3</v>
@@ -5760,7 +5740,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>4</v>
@@ -5771,7 +5751,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1</v>
@@ -5782,7 +5762,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2</v>
@@ -5793,7 +5773,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>4</v>
@@ -5804,7 +5784,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>4</v>
@@ -5815,7 +5795,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>1</v>
@@ -5826,7 +5806,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2</v>
@@ -5837,7 +5817,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>1</v>
@@ -5848,7 +5828,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2</v>
@@ -5859,7 +5839,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>3</v>
@@ -5870,7 +5850,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -5881,7 +5861,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -5892,7 +5872,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>6</v>
@@ -5903,7 +5883,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>7</v>
@@ -5914,7 +5894,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>8</v>
@@ -5925,7 +5905,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>9</v>
@@ -5936,7 +5916,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>10</v>
@@ -5947,7 +5927,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0</v>
@@ -5958,7 +5938,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>1</v>
@@ -5969,7 +5949,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>2</v>
@@ -5980,7 +5960,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>3</v>
@@ -5991,7 +5971,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>4</v>
@@ -6002,7 +5982,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>5</v>
@@ -6013,7 +5993,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>6</v>
@@ -6024,7 +6004,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -6035,7 +6015,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2</v>
@@ -6046,7 +6026,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>3</v>
@@ -6057,7 +6037,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>4</v>
@@ -6068,7 +6048,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -6079,7 +6059,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -6090,7 +6070,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0</v>
@@ -6101,7 +6081,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>1</v>
@@ -6112,7 +6092,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2</v>
@@ -6123,7 +6103,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>3</v>
@@ -6134,7 +6114,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -6145,7 +6125,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0</v>
@@ -6156,7 +6136,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>1</v>
@@ -6167,7 +6147,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2</v>
@@ -6178,7 +6158,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>3</v>
@@ -6189,7 +6169,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>4</v>
@@ -6200,7 +6180,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0</v>
@@ -6211,7 +6191,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>1</v>
@@ -6222,7 +6202,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2</v>
@@ -6233,7 +6213,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>3</v>
@@ -6244,7 +6224,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>4</v>
@@ -6255,7 +6235,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>5</v>
@@ -6266,7 +6246,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -6277,7 +6257,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -6288,7 +6268,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>8</v>
@@ -6299,7 +6279,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>9</v>
@@ -6310,7 +6290,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>10</v>
@@ -6321,7 +6301,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>11</v>
@@ -6332,7 +6312,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>12</v>
@@ -6343,7 +6323,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2</v>
@@ -6354,7 +6334,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>3</v>
@@ -6365,7 +6345,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>4</v>
@@ -6376,7 +6356,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>5</v>
@@ -6387,7 +6367,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>6</v>
@@ -6398,7 +6378,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>7</v>
@@ -6409,7 +6389,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2</v>
@@ -6420,7 +6400,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3</v>
@@ -6431,7 +6411,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>4</v>
@@ -6442,7 +6422,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2</v>
@@ -6453,7 +6433,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>3</v>
@@ -6464,7 +6444,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>4</v>
@@ -6475,7 +6455,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>1</v>
@@ -6486,7 +6466,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2</v>
@@ -6497,7 +6477,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2</v>
@@ -6508,7 +6488,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>3</v>
@@ -6519,7 +6499,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>4</v>
@@ -6530,7 +6510,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>5</v>
@@ -6541,7 +6521,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>6</v>
@@ -6552,7 +6532,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>7</v>
@@ -6563,7 +6543,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>8</v>
@@ -6574,7 +6554,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>3</v>
@@ -6585,7 +6565,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
@@ -6596,7 +6576,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>5</v>
@@ -6607,7 +6587,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>6</v>
@@ -6618,7 +6598,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>7</v>
@@ -6629,7 +6609,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2</v>
@@ -6640,7 +6620,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>3</v>
@@ -6651,7 +6631,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>4</v>
@@ -6662,7 +6642,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>3</v>
@@ -6673,7 +6653,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>4</v>
@@ -6684,7 +6664,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2</v>
@@ -6695,7 +6675,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>3</v>
@@ -6706,7 +6686,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>4</v>
@@ -6717,7 +6697,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>5</v>
@@ -6728,7 +6708,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>6</v>
@@ -6739,7 +6719,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>7</v>
@@ -6750,7 +6730,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>1</v>
@@ -6761,7 +6741,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2</v>
@@ -6772,7 +6752,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>3</v>
@@ -6783,7 +6763,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>4</v>
@@ -6794,7 +6774,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>3</v>
@@ -6805,7 +6785,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>4</v>
@@ -6816,7 +6796,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>5</v>
@@ -6827,7 +6807,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3</v>
@@ -6838,7 +6818,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>4</v>
@@ -6849,7 +6829,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>5</v>
@@ -6860,7 +6840,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2</v>
@@ -6871,7 +6851,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>3</v>
@@ -6882,7 +6862,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>4</v>
@@ -6893,7 +6873,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>5</v>
@@ -6904,7 +6884,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2</v>
@@ -6915,7 +6895,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>3</v>
@@ -6926,7 +6906,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>4</v>
@@ -6937,7 +6917,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>5</v>
@@ -6948,7 +6928,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>1</v>
@@ -6959,7 +6939,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>2</v>
@@ -6970,7 +6950,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>3</v>
@@ -6981,7 +6961,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>4</v>
@@ -6992,7 +6972,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>5</v>
@@ -7003,7 +6983,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>1</v>
@@ -7014,7 +6994,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>2</v>
@@ -7025,7 +7005,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>3</v>
@@ -7036,7 +7016,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>4</v>
@@ -7047,7 +7027,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>5</v>
@@ -7058,7 +7038,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>6</v>
@@ -7069,7 +7049,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>7</v>
@@ -7080,7 +7060,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>8</v>
@@ -7091,7 +7071,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>1</v>
@@ -7102,7 +7082,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>2</v>
@@ -7113,7 +7093,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>3</v>
@@ -7124,7 +7104,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>4</v>
@@ -7135,7 +7115,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>5</v>
@@ -7146,7 +7126,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>6</v>
@@ -7157,7 +7137,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>7</v>
@@ -7168,7 +7148,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>8</v>
@@ -7179,7 +7159,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>2</v>
@@ -7190,7 +7170,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>3</v>
@@ -7201,7 +7181,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>4</v>
@@ -7212,7 +7192,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>5</v>
@@ -7223,7 +7203,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>6</v>
@@ -7234,7 +7214,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>7</v>
@@ -7245,7 +7225,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>8</v>
@@ -7256,7 +7236,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>9</v>
@@ -7267,7 +7247,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>2</v>
@@ -7278,7 +7258,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>3</v>
@@ -7289,7 +7269,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>4</v>
@@ -7300,7 +7280,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>5</v>
@@ -7311,7 +7291,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>2</v>
@@ -7322,7 +7302,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>3</v>
@@ -7333,7 +7313,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>4</v>
@@ -7344,7 +7324,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>5</v>
@@ -7355,7 +7335,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>8</v>
@@ -7366,7 +7346,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>2</v>
@@ -7377,7 +7357,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>3</v>
@@ -7388,7 +7368,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>4</v>
@@ -7399,7 +7379,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>5</v>
@@ -7410,7 +7390,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>6</v>
@@ -7421,7 +7401,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>9</v>
@@ -7432,7 +7412,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>7</v>
@@ -7443,7 +7423,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>8</v>
@@ -7454,7 +7434,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>2</v>
@@ -7465,7 +7445,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>3</v>
@@ -7476,7 +7456,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>4</v>
@@ -7487,7 +7467,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>5</v>
@@ -7498,7 +7478,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>0</v>
@@ -7509,7 +7489,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>1</v>
@@ -7520,7 +7500,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>2</v>
@@ -7531,7 +7511,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>3</v>
@@ -7542,7 +7522,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>4</v>
@@ -7553,7 +7533,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>5</v>
@@ -7564,7 +7544,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>2</v>
@@ -7575,7 +7555,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>3</v>
@@ -7586,7 +7566,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>4</v>
@@ -7597,7 +7577,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>5</v>
@@ -7608,7 +7588,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>6</v>
@@ -7619,7 +7599,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>4</v>
@@ -7630,7 +7610,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>8</v>
@@ -7641,7 +7621,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>9</v>
@@ -7652,7 +7632,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>4</v>
@@ -7663,7 +7643,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>2</v>
@@ -7674,7 +7654,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>3</v>
@@ -7685,7 +7665,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>8</v>
@@ -7696,7 +7676,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>9</v>
@@ -7707,7 +7687,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>1</v>
@@ -7718,7 +7698,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>3</v>
@@ -7729,7 +7709,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>4</v>
@@ -7740,7 +7720,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>8</v>
@@ -7751,7 +7731,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>9</v>
@@ -7762,7 +7742,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>1</v>
@@ -7773,7 +7753,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>2</v>
@@ -7784,7 +7764,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>3</v>
@@ -7795,7 +7775,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>4</v>
@@ -7806,7 +7786,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>5</v>
@@ -7817,7 +7797,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>6</v>
@@ -7828,7 +7808,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>7</v>
@@ -7839,7 +7819,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>8</v>
@@ -7850,7 +7830,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>9</v>
@@ -7861,7 +7841,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>10</v>
@@ -7872,7 +7852,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>2</v>
@@ -7883,7 +7863,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>3</v>
@@ -7894,7 +7874,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>4</v>
@@ -7905,7 +7885,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>5</v>
@@ -7916,7 +7896,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>6</v>
@@ -7927,7 +7907,7 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>8</v>
@@ -7938,7 +7918,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>9</v>
@@ -7980,18 +7960,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -8002,7 +7982,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -8013,7 +7993,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -8024,7 +8004,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -8035,7 +8015,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -8046,7 +8026,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -8057,7 +8037,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -8068,7 +8048,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -8079,7 +8059,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -8090,7 +8070,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -8101,7 +8081,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -8112,7 +8092,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -8123,7 +8103,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -8134,7 +8114,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -8145,7 +8125,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -8156,7 +8136,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -8167,7 +8147,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -8178,7 +8158,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -8189,7 +8169,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
@@ -8200,7 +8180,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>7</v>
@@ -8211,7 +8191,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -8222,7 +8202,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -8233,7 +8213,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -8244,7 +8224,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -8255,7 +8235,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>96</v>
@@ -8266,7 +8246,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -8277,7 +8257,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -8288,7 +8268,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
@@ -8299,7 +8279,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -8310,7 +8290,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -8321,7 +8301,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -8332,7 +8312,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
@@ -8343,7 +8323,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -8354,7 +8334,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -8365,7 +8345,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -8376,7 +8356,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -8387,7 +8367,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>10</v>
@@ -8398,7 +8378,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>11</v>
@@ -8409,7 +8389,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>12</v>
@@ -8420,7 +8400,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13</v>
@@ -8431,7 +8411,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>14</v>
@@ -8442,7 +8422,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>15</v>
@@ -8453,7 +8433,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>16</v>
@@ -8464,7 +8444,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>17</v>
@@ -8475,7 +8455,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2</v>
@@ -8486,7 +8466,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>3</v>
@@ -8497,7 +8477,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>4</v>
@@ -8508,7 +8488,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>5</v>
@@ -8519,7 +8499,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6</v>
@@ -8530,7 +8510,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>4</v>
@@ -8541,7 +8521,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3</v>
@@ -8552,7 +8532,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -8563,7 +8543,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -8574,7 +8554,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -8585,7 +8565,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>7</v>
@@ -8596,7 +8576,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -8607,7 +8587,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>4</v>
@@ -8618,7 +8598,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2</v>
@@ -8629,7 +8609,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -8640,7 +8620,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
@@ -8651,7 +8631,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -8662,7 +8642,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
@@ -8673,7 +8653,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>3</v>
@@ -8684,7 +8664,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>4</v>
@@ -8695,7 +8675,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
@@ -8706,7 +8686,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6</v>
@@ -8717,7 +8697,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -8728,7 +8708,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>3</v>
@@ -8739,7 +8719,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>4</v>
@@ -8750,7 +8730,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>5</v>
@@ -8761,7 +8741,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2</v>
@@ -8772,7 +8752,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>3</v>
@@ -8783,7 +8763,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>4</v>
@@ -8794,7 +8774,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2</v>
@@ -8805,7 +8785,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>3</v>
@@ -8816,7 +8796,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>4</v>
@@ -8827,7 +8807,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>5</v>
@@ -8838,7 +8818,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>3</v>
@@ -8849,7 +8829,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>4</v>
@@ -8860,7 +8840,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -8871,7 +8851,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -8882,7 +8862,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>4</v>
@@ -8893,7 +8873,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>5</v>
@@ -8904,7 +8884,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2</v>
@@ -8915,7 +8895,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>3</v>
@@ -8926,7 +8906,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -8937,7 +8917,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -8948,7 +8928,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>6</v>
@@ -8959,7 +8939,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>7</v>
@@ -8970,7 +8950,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>8</v>
@@ -8981,7 +8961,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>9</v>
@@ -8992,7 +8972,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>10</v>
@@ -9003,7 +8983,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>11</v>
@@ -9014,7 +8994,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1</v>
@@ -9025,7 +9005,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2</v>
@@ -9036,7 +9016,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>3</v>
@@ -9047,7 +9027,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>4</v>
@@ -9058,7 +9038,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2</v>
@@ -9069,7 +9049,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>3</v>
@@ -9080,7 +9060,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>4</v>
@@ -9091,7 +9071,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -9102,7 +9082,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2</v>
@@ -9113,7 +9093,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>4</v>
@@ -9124,7 +9104,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
@@ -9135,7 +9115,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1</v>
@@ -9146,7 +9126,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2</v>
@@ -9157,7 +9137,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
@@ -9168,7 +9148,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2</v>
@@ -9179,7 +9159,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>3</v>
@@ -9190,7 +9170,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -9201,7 +9181,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -9212,7 +9192,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>6</v>
@@ -9223,7 +9203,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>7</v>
@@ -9234,7 +9214,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>8</v>
@@ -9245,7 +9225,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>9</v>
@@ -9256,7 +9236,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>10</v>
@@ -9267,7 +9247,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0</v>
@@ -9278,7 +9258,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>1</v>
@@ -9289,7 +9269,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2</v>
@@ -9300,7 +9280,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>3</v>
@@ -9311,7 +9291,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>4</v>
@@ -9322,7 +9302,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>5</v>
@@ -9333,7 +9313,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>6</v>
@@ -9344,7 +9324,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -9355,7 +9335,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
@@ -9366,7 +9346,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>3</v>
@@ -9377,7 +9357,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>4</v>
@@ -9388,7 +9368,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -9399,7 +9379,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -9410,7 +9390,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0</v>
@@ -9421,7 +9401,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>1</v>
@@ -9432,7 +9412,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2</v>
@@ -9443,7 +9423,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>3</v>
@@ -9454,7 +9434,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -9465,7 +9445,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0</v>
@@ -9476,7 +9456,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>1</v>
@@ -9487,7 +9467,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2</v>
@@ -9498,7 +9478,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>3</v>
@@ -9509,7 +9489,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>4</v>
@@ -9520,7 +9500,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -9531,7 +9511,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>1</v>
@@ -9542,7 +9522,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2</v>
@@ -9553,7 +9533,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>3</v>
@@ -9564,7 +9544,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>4</v>
@@ -9575,7 +9555,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>5</v>
@@ -9586,7 +9566,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -9597,7 +9577,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -9608,7 +9588,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>8</v>
@@ -9619,7 +9599,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>9</v>
@@ -9630,7 +9610,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>10</v>
@@ -9641,7 +9621,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>11</v>
@@ -9652,7 +9632,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>12</v>
@@ -9663,7 +9643,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2</v>
@@ -9674,7 +9654,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>3</v>
@@ -9685,7 +9665,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>4</v>
@@ -9696,7 +9676,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>5</v>
@@ -9707,7 +9687,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>6</v>
@@ -9718,7 +9698,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>7</v>
@@ -9729,7 +9709,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2</v>
@@ -9740,7 +9720,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>3</v>
@@ -9751,7 +9731,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>4</v>
@@ -9762,7 +9742,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2</v>
@@ -9773,7 +9753,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>3</v>
@@ -9784,7 +9764,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>4</v>
@@ -9795,7 +9775,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1</v>
@@ -9806,7 +9786,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2</v>
@@ -9817,7 +9797,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2</v>
@@ -9828,7 +9808,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3</v>
@@ -9839,7 +9819,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>4</v>
@@ -9850,7 +9830,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>5</v>
@@ -9861,7 +9841,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>6</v>
@@ -9872,7 +9852,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>7</v>
@@ -9883,7 +9863,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>8</v>
@@ -9894,7 +9874,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>3</v>
@@ -9905,7 +9885,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>4</v>
@@ -9916,7 +9896,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>5</v>
@@ -9927,7 +9907,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>6</v>
@@ -9938,7 +9918,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>7</v>
@@ -9949,7 +9929,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2</v>
@@ -9960,7 +9940,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>3</v>
@@ -9971,7 +9951,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>4</v>
@@ -9982,7 +9962,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>3</v>
@@ -9993,7 +9973,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
@@ -10004,7 +9984,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2</v>
@@ -10015,7 +9995,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>3</v>
@@ -10026,7 +10006,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>4</v>
@@ -10037,7 +10017,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>5</v>
@@ -10048,7 +10028,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>6</v>
@@ -10059,7 +10039,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>7</v>
@@ -10070,7 +10050,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>1</v>
@@ -10081,7 +10061,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2</v>
@@ -10092,7 +10072,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>3</v>
@@ -10103,7 +10083,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>4</v>
@@ -10114,7 +10094,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>3</v>
@@ -10125,7 +10105,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>4</v>
@@ -10136,7 +10116,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>5</v>
@@ -10147,7 +10127,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>3</v>
@@ -10158,7 +10138,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>4</v>
@@ -10169,7 +10149,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>5</v>
@@ -10180,7 +10160,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2</v>
@@ -10191,7 +10171,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>3</v>
@@ -10202,7 +10182,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>4</v>
@@ -10213,7 +10193,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>5</v>
@@ -10224,7 +10204,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2</v>
@@ -10235,7 +10215,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3</v>
@@ -10246,7 +10226,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>4</v>
@@ -10257,7 +10237,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>5</v>
@@ -10268,7 +10248,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>1</v>
@@ -10279,7 +10259,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>3</v>
@@ -10290,7 +10270,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>4</v>
@@ -10301,7 +10281,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>5</v>
@@ -10312,7 +10292,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>1</v>
@@ -10323,7 +10303,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>2</v>
@@ -10334,7 +10314,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>3</v>
@@ -10345,7 +10325,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>4</v>
@@ -10356,7 +10336,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>5</v>
@@ -10367,7 +10347,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>6</v>
@@ -10378,7 +10358,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>7</v>
@@ -10389,7 +10369,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>1</v>
@@ -10400,7 +10380,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>2</v>
@@ -10411,7 +10391,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>3</v>
@@ -10422,7 +10402,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>4</v>
@@ -10433,7 +10413,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>5</v>
@@ -10444,7 +10424,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>6</v>
@@ -10455,7 +10435,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>7</v>
@@ -10466,7 +10446,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>2</v>
@@ -10477,7 +10457,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>3</v>
@@ -10488,7 +10468,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>4</v>
@@ -10499,7 +10479,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>5</v>
@@ -10510,7 +10490,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>6</v>
@@ -10521,7 +10501,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>7</v>
@@ -10532,7 +10512,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>8</v>
@@ -10543,7 +10523,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>9</v>
@@ -10554,7 +10534,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>2</v>
@@ -10565,7 +10545,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>3</v>
@@ -10576,7 +10556,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>4</v>
@@ -10587,7 +10567,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>5</v>
@@ -10598,7 +10578,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>2</v>
@@ -10609,7 +10589,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>3</v>
@@ -10620,7 +10600,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>4</v>
@@ -10631,7 +10611,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>5</v>
@@ -10642,7 +10622,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>8</v>
@@ -10653,7 +10633,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>2</v>
@@ -10664,7 +10644,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>3</v>
@@ -10675,7 +10655,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>4</v>
@@ -10686,7 +10666,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>5</v>
@@ -10697,7 +10677,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>6</v>
@@ -10708,7 +10688,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>9</v>
@@ -10719,7 +10699,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>7</v>
@@ -10730,7 +10710,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>8</v>
@@ -10741,7 +10721,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>2</v>
@@ -10752,7 +10732,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>3</v>
@@ -10763,7 +10743,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>4</v>
@@ -10774,7 +10754,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>5</v>
@@ -10785,7 +10765,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>0</v>
@@ -10796,7 +10776,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>1</v>
@@ -10807,7 +10787,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>2</v>
@@ -10818,7 +10798,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>3</v>
@@ -10829,7 +10809,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>4</v>
@@ -10840,7 +10820,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>5</v>
@@ -10851,7 +10831,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>2</v>
@@ -10862,7 +10842,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>3</v>
@@ -10873,7 +10853,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>4</v>
@@ -10884,7 +10864,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>5</v>
@@ -10895,7 +10875,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>6</v>
@@ -10906,7 +10886,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>4</v>
@@ -10917,7 +10897,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>8</v>
@@ -10928,7 +10908,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>9</v>
@@ -10939,7 +10919,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>2</v>
@@ -10950,7 +10930,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>3</v>
@@ -10961,7 +10941,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>4</v>
@@ -10972,7 +10952,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>8</v>
@@ -10983,7 +10963,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>9</v>
@@ -10994,7 +10974,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>1</v>
@@ -11005,7 +10985,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>3</v>
@@ -11016,7 +10996,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>4</v>
@@ -11027,7 +11007,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>8</v>
@@ -11038,7 +11018,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>9</v>
@@ -11049,7 +11029,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>1</v>
@@ -11060,7 +11040,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>2</v>
@@ -11071,7 +11051,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>3</v>
@@ -11082,7 +11062,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>4</v>
@@ -11093,7 +11073,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>5</v>
@@ -11104,7 +11084,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>6</v>
@@ -11115,7 +11095,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>7</v>
@@ -11126,7 +11106,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>8</v>
@@ -11137,7 +11117,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>9</v>
@@ -11148,7 +11128,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>10</v>
@@ -11159,7 +11139,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>2</v>
@@ -11170,7 +11150,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>3</v>
@@ -11181,7 +11161,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>4</v>
@@ -11192,7 +11172,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>5</v>
@@ -11203,7 +11183,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>6</v>
@@ -11214,7 +11194,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>8</v>
@@ -11225,7 +11205,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>9</v>
@@ -11252,7 +11232,7 @@
   </sheetPr>
   <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C274" activeCellId="0" sqref="C274"/>
     </sheetView>
   </sheetViews>
@@ -11267,18 +11247,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -11289,7 +11269,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -11300,7 +11280,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -11311,7 +11291,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11322,7 +11302,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -11333,7 +11313,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -11344,7 +11324,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -11355,7 +11335,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -11366,7 +11346,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -11377,7 +11357,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -11388,7 +11368,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -11399,7 +11379,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -11410,7 +11390,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -11421,7 +11401,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -11432,7 +11412,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -11443,7 +11423,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -11454,7 +11434,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -11465,7 +11445,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -11476,7 +11456,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
@@ -11487,7 +11467,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>7</v>
@@ -11498,7 +11478,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -11509,7 +11489,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -11520,7 +11500,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -11531,7 +11511,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -11542,7 +11522,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>96</v>
@@ -11553,7 +11533,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -11564,7 +11544,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -11575,7 +11555,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
@@ -11586,7 +11566,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -11597,7 +11577,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -11608,7 +11588,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -11619,7 +11599,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
@@ -11630,7 +11610,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -11641,7 +11621,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -11652,7 +11632,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -11663,7 +11643,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -11674,7 +11654,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>10</v>
@@ -11685,7 +11665,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>11</v>
@@ -11696,7 +11676,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>12</v>
@@ -11707,7 +11687,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13</v>
@@ -11718,7 +11698,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>14</v>
@@ -11729,7 +11709,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>15</v>
@@ -11740,7 +11720,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>16</v>
@@ -11751,7 +11731,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>17</v>
@@ -11762,7 +11742,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2</v>
@@ -11773,7 +11753,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>3</v>
@@ -11784,7 +11764,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>4</v>
@@ -11795,7 +11775,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>5</v>
@@ -11806,7 +11786,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6</v>
@@ -11817,7 +11797,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>4</v>
@@ -11828,7 +11808,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3</v>
@@ -11839,7 +11819,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -11850,7 +11830,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -11861,7 +11841,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -11872,7 +11852,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>7</v>
@@ -11883,7 +11863,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -11894,7 +11874,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>4</v>
@@ -11905,7 +11885,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2</v>
@@ -11916,7 +11896,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -11927,7 +11907,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
@@ -11938,7 +11918,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -11949,7 +11929,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
@@ -11960,7 +11940,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>3</v>
@@ -11971,7 +11951,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>4</v>
@@ -11982,7 +11962,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
@@ -11993,7 +11973,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6</v>
@@ -12004,7 +11984,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -12015,7 +11995,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>3</v>
@@ -12026,7 +12006,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>4</v>
@@ -12037,7 +12017,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>5</v>
@@ -12048,7 +12028,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2</v>
@@ -12059,7 +12039,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>3</v>
@@ -12070,7 +12050,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>4</v>
@@ -12081,7 +12061,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2</v>
@@ -12092,7 +12072,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>3</v>
@@ -12103,7 +12083,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>4</v>
@@ -12114,7 +12094,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>5</v>
@@ -12125,7 +12105,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>3</v>
@@ -12136,7 +12116,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>4</v>
@@ -12147,7 +12127,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -12158,7 +12138,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -12169,7 +12149,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>4</v>
@@ -12180,7 +12160,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>5</v>
@@ -12191,7 +12171,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2</v>
@@ -12202,7 +12182,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>3</v>
@@ -12213,7 +12193,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -12224,7 +12204,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -12235,7 +12215,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>6</v>
@@ -12246,7 +12226,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>7</v>
@@ -12257,7 +12237,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>8</v>
@@ -12268,7 +12248,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>9</v>
@@ -12279,7 +12259,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>10</v>
@@ -12290,7 +12270,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>11</v>
@@ -12301,7 +12281,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1</v>
@@ -12312,7 +12292,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2</v>
@@ -12323,7 +12303,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>3</v>
@@ -12334,7 +12314,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>4</v>
@@ -12345,7 +12325,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2</v>
@@ -12356,7 +12336,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>3</v>
@@ -12367,7 +12347,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>4</v>
@@ -12378,7 +12358,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -12389,7 +12369,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2</v>
@@ -12400,7 +12380,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>4</v>
@@ -12411,7 +12391,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
@@ -12422,7 +12402,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1</v>
@@ -12433,7 +12413,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2</v>
@@ -12444,7 +12424,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
@@ -12455,7 +12435,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2</v>
@@ -12466,7 +12446,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>3</v>
@@ -12477,7 +12457,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -12488,7 +12468,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -12499,7 +12479,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>6</v>
@@ -12510,7 +12490,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>7</v>
@@ -12521,7 +12501,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>8</v>
@@ -12532,7 +12512,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>9</v>
@@ -12543,7 +12523,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>10</v>
@@ -12554,7 +12534,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0</v>
@@ -12565,7 +12545,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>1</v>
@@ -12576,7 +12556,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2</v>
@@ -12587,7 +12567,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>3</v>
@@ -12598,7 +12578,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>4</v>
@@ -12609,7 +12589,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>5</v>
@@ -12620,7 +12600,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>6</v>
@@ -12631,7 +12611,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -12642,7 +12622,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
@@ -12653,7 +12633,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>3</v>
@@ -12664,7 +12644,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>4</v>
@@ -12675,7 +12655,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -12686,7 +12666,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -12697,7 +12677,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0</v>
@@ -12708,7 +12688,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>1</v>
@@ -12719,7 +12699,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2</v>
@@ -12730,7 +12710,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>3</v>
@@ -12741,7 +12721,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -12752,7 +12732,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0</v>
@@ -12763,7 +12743,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>1</v>
@@ -12774,7 +12754,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2</v>
@@ -12785,7 +12765,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>3</v>
@@ -12796,7 +12776,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>4</v>
@@ -12807,7 +12787,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -12818,7 +12798,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>1</v>
@@ -12829,7 +12809,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2</v>
@@ -12840,7 +12820,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>3</v>
@@ -12851,7 +12831,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>4</v>
@@ -12862,7 +12842,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>5</v>
@@ -12873,7 +12853,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -12884,7 +12864,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -12895,7 +12875,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>8</v>
@@ -12906,7 +12886,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>9</v>
@@ -12917,7 +12897,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>10</v>
@@ -12928,7 +12908,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>11</v>
@@ -12939,7 +12919,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>12</v>
@@ -12950,7 +12930,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2</v>
@@ -12961,7 +12941,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>3</v>
@@ -12972,7 +12952,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>4</v>
@@ -12983,7 +12963,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>5</v>
@@ -12994,7 +12974,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>6</v>
@@ -13005,7 +12985,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>7</v>
@@ -13016,7 +12996,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2</v>
@@ -13027,7 +13007,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>3</v>
@@ -13038,7 +13018,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>4</v>
@@ -13049,7 +13029,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2</v>
@@ -13060,7 +13040,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>3</v>
@@ -13071,7 +13051,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>4</v>
@@ -13082,7 +13062,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1</v>
@@ -13093,7 +13073,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2</v>
@@ -13104,7 +13084,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2</v>
@@ -13115,7 +13095,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3</v>
@@ -13126,7 +13106,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>4</v>
@@ -13137,7 +13117,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>5</v>
@@ -13148,7 +13128,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>6</v>
@@ -13159,7 +13139,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>7</v>
@@ -13170,7 +13150,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>8</v>
@@ -13181,7 +13161,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>3</v>
@@ -13192,7 +13172,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>4</v>
@@ -13203,7 +13183,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>5</v>
@@ -13214,7 +13194,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>6</v>
@@ -13225,7 +13205,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>7</v>
@@ -13236,7 +13216,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2</v>
@@ -13247,7 +13227,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>3</v>
@@ -13258,7 +13238,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>4</v>
@@ -13269,7 +13249,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>3</v>
@@ -13280,7 +13260,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
@@ -13291,7 +13271,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2</v>
@@ -13302,7 +13282,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>3</v>
@@ -13313,7 +13293,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>4</v>
@@ -13324,7 +13304,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>5</v>
@@ -13335,7 +13315,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>6</v>
@@ -13346,7 +13326,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>7</v>
@@ -13357,7 +13337,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>1</v>
@@ -13368,7 +13348,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2</v>
@@ -13379,7 +13359,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>3</v>
@@ -13390,7 +13370,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>4</v>
@@ -13401,7 +13381,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>3</v>
@@ -13412,7 +13392,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>4</v>
@@ -13423,7 +13403,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>5</v>
@@ -13434,7 +13414,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>3</v>
@@ -13445,7 +13425,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>4</v>
@@ -13456,7 +13436,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>5</v>
@@ -13467,7 +13447,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2</v>
@@ -13478,7 +13458,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>3</v>
@@ -13489,7 +13469,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>4</v>
@@ -13500,7 +13480,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>5</v>
@@ -13511,7 +13491,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2</v>
@@ -13522,7 +13502,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3</v>
@@ -13533,7 +13513,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>4</v>
@@ -13544,7 +13524,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>5</v>
@@ -13555,7 +13535,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>1</v>
@@ -13566,7 +13546,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2</v>
@@ -13577,7 +13557,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>3</v>
@@ -13588,7 +13568,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>4</v>
@@ -13599,7 +13579,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>5</v>
@@ -13610,7 +13590,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>1</v>
@@ -13621,7 +13601,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>2</v>
@@ -13632,7 +13612,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>3</v>
@@ -13643,7 +13623,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>4</v>
@@ -13654,7 +13634,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>5</v>
@@ -13665,7 +13645,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>6</v>
@@ -13676,7 +13656,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>7</v>
@@ -13687,7 +13667,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>1</v>
@@ -13698,7 +13678,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>2</v>
@@ -13709,7 +13689,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>3</v>
@@ -13720,7 +13700,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>4</v>
@@ -13731,7 +13711,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>5</v>
@@ -13742,7 +13722,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>6</v>
@@ -13753,7 +13733,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>7</v>
@@ -13764,7 +13744,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>2</v>
@@ -13775,7 +13755,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>3</v>
@@ -13786,7 +13766,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>4</v>
@@ -13797,7 +13777,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>5</v>
@@ -13808,7 +13788,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>6</v>
@@ -13819,7 +13799,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>7</v>
@@ -13830,7 +13810,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>8</v>
@@ -13841,7 +13821,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>9</v>
@@ -13852,7 +13832,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>2</v>
@@ -13863,7 +13843,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>3</v>
@@ -13874,7 +13854,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>4</v>
@@ -13885,7 +13865,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>5</v>
@@ -13896,7 +13876,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>2</v>
@@ -13907,7 +13887,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>3</v>
@@ -13918,7 +13898,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>4</v>
@@ -13929,7 +13909,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>5</v>
@@ -13940,7 +13920,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>8</v>
@@ -13951,7 +13931,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>2</v>
@@ -13962,7 +13942,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>3</v>
@@ -13973,7 +13953,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>4</v>
@@ -13984,7 +13964,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>5</v>
@@ -13995,7 +13975,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>6</v>
@@ -14006,7 +13986,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>9</v>
@@ -14017,7 +13997,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>7</v>
@@ -14028,7 +14008,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>8</v>
@@ -14039,7 +14019,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>2</v>
@@ -14050,7 +14030,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>3</v>
@@ -14061,7 +14041,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>4</v>
@@ -14072,7 +14052,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>5</v>
@@ -14083,7 +14063,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>0</v>
@@ -14094,7 +14074,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>1</v>
@@ -14105,7 +14085,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>2</v>
@@ -14116,7 +14096,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>3</v>
@@ -14127,7 +14107,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>4</v>
@@ -14138,7 +14118,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>5</v>
@@ -14149,7 +14129,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>2</v>
@@ -14160,7 +14140,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>3</v>
@@ -14171,7 +14151,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>4</v>
@@ -14182,7 +14162,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>5</v>
@@ -14193,7 +14173,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>6</v>
@@ -14204,7 +14184,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>4</v>
@@ -14215,7 +14195,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>8</v>
@@ -14226,7 +14206,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>9</v>
@@ -14237,7 +14217,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>2</v>
@@ -14248,7 +14228,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>3</v>
@@ -14259,7 +14239,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>4</v>
@@ -14270,7 +14250,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>8</v>
@@ -14281,7 +14261,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>9</v>
@@ -14292,7 +14272,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>1</v>
@@ -14303,7 +14283,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>3</v>
@@ -14314,7 +14294,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>4</v>
@@ -14325,7 +14305,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>8</v>
@@ -14336,7 +14316,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>9</v>
@@ -14347,7 +14327,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>1</v>
@@ -14358,7 +14338,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>2</v>
@@ -14369,7 +14349,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>3</v>
@@ -14380,7 +14360,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>4</v>
@@ -14391,7 +14371,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>5</v>
@@ -14402,7 +14382,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>6</v>
@@ -14413,7 +14393,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>7</v>
@@ -14424,7 +14404,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>8</v>
@@ -14435,7 +14415,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>9</v>
@@ -14446,7 +14426,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>10</v>
@@ -14457,7 +14437,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>2</v>
@@ -14468,7 +14448,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>3</v>
@@ -14479,7 +14459,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>4</v>
@@ -14490,7 +14470,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>5</v>
@@ -14501,7 +14481,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>6</v>
@@ -14512,7 +14492,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>8</v>
@@ -14523,7 +14503,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>9</v>
@@ -14626,26 +14606,26 @@
   </sheetPr>
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G72" activeCellId="0" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -14653,7 +14633,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -14661,7 +14641,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -14669,7 +14649,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -14677,7 +14657,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
@@ -14685,7 +14665,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -14693,7 +14673,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
@@ -14701,7 +14681,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -14709,7 +14689,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8</v>
@@ -14717,7 +14697,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -14725,7 +14705,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>9</v>
@@ -14733,7 +14713,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>10</v>
@@ -14741,7 +14721,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10</v>
@@ -14749,7 +14729,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>10</v>
@@ -14757,7 +14737,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>10</v>
@@ -14765,7 +14745,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>11</v>
@@ -14773,7 +14753,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>12</v>
@@ -14781,7 +14761,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>13</v>
@@ -14789,7 +14769,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>13</v>
@@ -14797,7 +14777,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>14</v>
@@ -14805,7 +14785,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>14</v>
@@ -14813,7 +14793,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>14</v>
@@ -14821,7 +14801,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>14</v>
@@ -14829,7 +14809,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>14</v>
@@ -14837,7 +14817,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>14</v>
@@ -14845,7 +14825,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>14</v>
@@ -14853,7 +14833,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>14</v>
@@ -14861,7 +14841,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>14</v>
@@ -14869,7 +14849,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>14</v>
@@ -14877,7 +14857,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>14</v>
@@ -14885,7 +14865,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>14</v>
@@ -14893,7 +14873,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>14</v>
@@ -14901,7 +14881,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>14</v>
@@ -14909,7 +14889,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>14</v>
@@ -14917,7 +14897,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>14</v>
@@ -14925,7 +14905,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>14</v>
@@ -14933,7 +14913,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>14</v>
@@ -14941,7 +14921,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>14</v>
@@ -14949,7 +14929,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>14</v>
@@ -14957,7 +14937,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>14</v>
@@ -14965,7 +14945,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>14</v>
@@ -14973,7 +14953,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>14</v>
@@ -14981,7 +14961,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>14</v>
@@ -14989,7 +14969,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>14</v>
@@ -14997,7 +14977,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>14</v>
@@ -15005,7 +14985,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14</v>
@@ -15013,7 +14993,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>14</v>
@@ -15021,7 +15001,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>14</v>
@@ -15029,7 +15009,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>14</v>
@@ -15037,7 +15017,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>14</v>
@@ -15045,7 +15025,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>14</v>
@@ -15053,7 +15033,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>14</v>
@@ -15061,7 +15041,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>14</v>
@@ -15069,7 +15049,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>14</v>
@@ -15077,7 +15057,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>14</v>
@@ -15085,7 +15065,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>14</v>
@@ -15093,7 +15073,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>14</v>
@@ -15101,7 +15081,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>14</v>
@@ -15109,7 +15089,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>14</v>
@@ -15117,7 +15097,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>14</v>
@@ -15125,7 +15105,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>14</v>
@@ -15133,7 +15113,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>14</v>
@@ -15141,7 +15121,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>14</v>
@@ -15149,7 +15129,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>14</v>
@@ -15157,7 +15137,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>15</v>
@@ -15165,7 +15145,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>16</v>
@@ -15173,7 +15153,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>17</v>
@@ -15181,7 +15161,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>18</v>
@@ -15189,7 +15169,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>20</v>
@@ -15197,7 +15177,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>20</v>
@@ -15205,7 +15185,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>21</v>
@@ -15213,7 +15193,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>6</v>
@@ -15221,7 +15201,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>10</v>
@@ -15229,7 +15209,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>13</v>
@@ -15237,7 +15217,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>13</v>
@@ -15245,7 +15225,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>14</v>
@@ -15253,7 +15233,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>14</v>
@@ -15261,7 +15241,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>22</v>
@@ -15269,7 +15249,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>14</v>
@@ -15277,7 +15257,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>14</v>
@@ -15285,7 +15265,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>14</v>
@@ -15293,7 +15273,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>14</v>
@@ -15301,7 +15281,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>14</v>

--- a/auxiliary_data/mics_dictionary_setcode.xlsx
+++ b/auxiliary_data/mics_dictionary_setcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="482">
   <si>
     <t xml:space="preserve">original_name</t>
   </si>
@@ -999,6 +999,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ombella M'Poko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toumbouctou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tombouctou</t>
   </si>
   <si>
     <t xml:space="preserve">religion_replace</t>
@@ -1550,13 +1559,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1582,7 +1595,7 @@
       <selection pane="topLeft" activeCell="H66" activeCellId="0" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.09"/>
@@ -3128,7 +3141,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3512,10 +3525,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4031,6 +4044,17 @@
       </c>
       <c r="C46" s="0" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4068,319 +4092,319 @@
         <v>68</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>355</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,7 +4433,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>134</v>
@@ -4417,7 +4441,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>134</v>
@@ -4425,47 +4449,47 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>207</v>
@@ -4481,7 +4505,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>207</v>
@@ -4489,7 +4513,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>207</v>
@@ -4497,7 +4521,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>207</v>
@@ -4552,18 +4576,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -4574,7 +4598,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -4585,7 +4609,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -4596,7 +4620,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4607,7 +4631,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -4618,7 +4642,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -4629,7 +4653,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -4640,7 +4664,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -4651,7 +4675,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -4662,7 +4686,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -4673,7 +4697,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -4684,7 +4708,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -4695,7 +4719,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -4706,7 +4730,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -4717,7 +4741,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -4728,7 +4752,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -4739,7 +4763,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -4750,7 +4774,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -4761,7 +4785,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
@@ -4772,7 +4796,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>7</v>
@@ -4783,7 +4807,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -4794,7 +4818,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -4805,7 +4829,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -4816,7 +4840,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -4827,7 +4851,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>96</v>
@@ -4838,7 +4862,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -4849,7 +4873,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -4860,7 +4884,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
@@ -4871,7 +4895,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -4882,7 +4906,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -4893,7 +4917,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -4904,7 +4928,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
@@ -4915,7 +4939,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -4926,7 +4950,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -4937,7 +4961,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2</v>
@@ -4948,7 +4972,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>3</v>
@@ -4959,7 +4983,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>4</v>
@@ -4970,7 +4994,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>5</v>
@@ -4981,7 +5005,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>2</v>
@@ -4992,7 +5016,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>3</v>
@@ -5003,7 +5027,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>4</v>
@@ -5014,7 +5038,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>5</v>
@@ -5025,7 +5049,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -5036,7 +5060,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2</v>
@@ -5047,7 +5071,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10</v>
@@ -5058,7 +5082,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>11</v>
@@ -5069,7 +5093,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>12</v>
@@ -5080,7 +5104,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>13</v>
@@ -5091,7 +5115,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>14</v>
@@ -5102,7 +5126,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>15</v>
@@ -5113,7 +5137,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>16</v>
@@ -5124,7 +5148,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>17</v>
@@ -5135,7 +5159,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>2</v>
@@ -5146,7 +5170,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3</v>
@@ -5157,7 +5181,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>4</v>
@@ -5168,7 +5192,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>5</v>
@@ -5179,7 +5203,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>6</v>
@@ -5190,7 +5214,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>4</v>
@@ -5201,7 +5225,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -5212,7 +5236,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
@@ -5223,7 +5247,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -5234,7 +5258,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>6</v>
@@ -5245,7 +5269,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>7</v>
@@ -5256,7 +5280,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>3</v>
@@ -5267,7 +5291,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>4</v>
@@ -5278,7 +5302,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -5289,7 +5313,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>3</v>
@@ -5300,7 +5324,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>4</v>
@@ -5311,7 +5335,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>5</v>
@@ -5322,7 +5346,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>2</v>
@@ -5333,7 +5357,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>3</v>
@@ -5344,7 +5368,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4</v>
@@ -5355,7 +5379,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>5</v>
@@ -5366,7 +5390,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>6</v>
@@ -5377,7 +5401,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>2</v>
@@ -5388,7 +5412,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>3</v>
@@ -5399,7 +5423,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>4</v>
@@ -5410,7 +5434,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>5</v>
@@ -5421,7 +5445,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2</v>
@@ -5432,7 +5456,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>3</v>
@@ -5443,7 +5467,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>4</v>
@@ -5454,7 +5478,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2</v>
@@ -5465,7 +5489,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>3</v>
@@ -5476,7 +5500,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>4</v>
@@ -5487,7 +5511,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>5</v>
@@ -5498,7 +5522,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>3</v>
@@ -5509,7 +5533,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>4</v>
@@ -5520,7 +5544,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>5</v>
@@ -5531,7 +5555,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>6</v>
@@ -5542,7 +5566,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>4</v>
@@ -5553,7 +5577,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>5</v>
@@ -5564,7 +5588,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>2</v>
@@ -5575,7 +5599,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>3</v>
@@ -5586,7 +5610,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>4</v>
@@ -5597,7 +5621,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -5608,7 +5632,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>6</v>
@@ -5619,7 +5643,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>7</v>
@@ -5630,7 +5654,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>8</v>
@@ -5641,7 +5665,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>9</v>
@@ -5652,7 +5676,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>10</v>
@@ -5663,7 +5687,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>11</v>
@@ -5674,7 +5698,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1</v>
@@ -5685,7 +5709,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>2</v>
@@ -5696,7 +5720,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>3</v>
@@ -5707,7 +5731,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>4</v>
@@ -5718,7 +5742,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2</v>
@@ -5729,7 +5753,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>3</v>
@@ -5740,7 +5764,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>4</v>
@@ -5751,7 +5775,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>1</v>
@@ -5762,7 +5786,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>2</v>
@@ -5773,7 +5797,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>4</v>
@@ -5784,7 +5808,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>4</v>
@@ -5795,7 +5819,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>1</v>
@@ -5806,7 +5830,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2</v>
@@ -5817,7 +5841,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>1</v>
@@ -5828,7 +5852,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>2</v>
@@ -5839,7 +5863,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>3</v>
@@ -5850,7 +5874,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>4</v>
@@ -5861,7 +5885,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>5</v>
@@ -5872,7 +5896,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>6</v>
@@ -5883,7 +5907,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>7</v>
@@ -5894,7 +5918,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>8</v>
@@ -5905,7 +5929,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>9</v>
@@ -5916,7 +5940,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>10</v>
@@ -5927,7 +5951,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0</v>
@@ -5938,7 +5962,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>1</v>
@@ -5949,7 +5973,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>2</v>
@@ -5960,7 +5984,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>3</v>
@@ -5971,7 +5995,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>4</v>
@@ -5982,7 +6006,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>5</v>
@@ -5993,7 +6017,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>6</v>
@@ -6004,7 +6028,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>7</v>
@@ -6015,7 +6039,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2</v>
@@ -6026,7 +6050,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>3</v>
@@ -6037,7 +6061,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>4</v>
@@ -6048,7 +6072,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>5</v>
@@ -6059,7 +6083,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>6</v>
@@ -6070,7 +6094,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0</v>
@@ -6081,7 +6105,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>1</v>
@@ -6092,7 +6116,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>2</v>
@@ -6103,7 +6127,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>3</v>
@@ -6114,7 +6138,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -6125,7 +6149,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0</v>
@@ -6136,7 +6160,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>1</v>
@@ -6147,7 +6171,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>2</v>
@@ -6158,7 +6182,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>3</v>
@@ -6169,7 +6193,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>4</v>
@@ -6180,7 +6204,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0</v>
@@ -6191,7 +6215,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>1</v>
@@ -6202,7 +6226,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>2</v>
@@ -6213,7 +6237,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>3</v>
@@ -6224,7 +6248,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>4</v>
@@ -6235,7 +6259,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>5</v>
@@ -6246,7 +6270,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>6</v>
@@ -6257,7 +6281,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>7</v>
@@ -6268,7 +6292,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>8</v>
@@ -6279,7 +6303,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>9</v>
@@ -6290,7 +6314,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>10</v>
@@ -6301,7 +6325,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>11</v>
@@ -6312,7 +6336,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>12</v>
@@ -6323,7 +6347,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>2</v>
@@ -6334,7 +6358,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>3</v>
@@ -6345,7 +6369,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>4</v>
@@ -6356,7 +6380,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>5</v>
@@ -6367,7 +6391,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>6</v>
@@ -6378,7 +6402,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>7</v>
@@ -6389,7 +6413,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2</v>
@@ -6400,7 +6424,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3</v>
@@ -6411,7 +6435,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>4</v>
@@ -6422,7 +6446,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>2</v>
@@ -6433,7 +6457,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>3</v>
@@ -6444,7 +6468,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>4</v>
@@ -6455,7 +6479,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>1</v>
@@ -6466,7 +6490,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>2</v>
@@ -6477,7 +6501,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>2</v>
@@ -6488,7 +6512,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>3</v>
@@ -6499,7 +6523,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>4</v>
@@ -6510,7 +6534,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>5</v>
@@ -6521,7 +6545,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>6</v>
@@ -6532,7 +6556,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>7</v>
@@ -6543,7 +6567,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>8</v>
@@ -6554,7 +6578,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>3</v>
@@ -6565,7 +6589,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
@@ -6576,7 +6600,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>5</v>
@@ -6587,7 +6611,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>6</v>
@@ -6598,7 +6622,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>7</v>
@@ -6609,7 +6633,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2</v>
@@ -6620,7 +6644,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>3</v>
@@ -6631,7 +6655,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>4</v>
@@ -6642,7 +6666,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>3</v>
@@ -6653,7 +6677,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>4</v>
@@ -6664,7 +6688,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2</v>
@@ -6675,7 +6699,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>3</v>
@@ -6686,7 +6710,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>4</v>
@@ -6697,7 +6721,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>5</v>
@@ -6708,7 +6732,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>6</v>
@@ -6719,7 +6743,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>7</v>
@@ -6730,7 +6754,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>1</v>
@@ -6741,7 +6765,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2</v>
@@ -6752,7 +6776,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>3</v>
@@ -6763,7 +6787,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>4</v>
@@ -6774,7 +6798,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>3</v>
@@ -6785,7 +6809,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>4</v>
@@ -6796,7 +6820,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>5</v>
@@ -6807,7 +6831,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3</v>
@@ -6818,7 +6842,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>4</v>
@@ -6829,7 +6853,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>5</v>
@@ -6840,7 +6864,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2</v>
@@ -6851,7 +6875,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>3</v>
@@ -6862,7 +6886,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>4</v>
@@ -6873,7 +6897,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>5</v>
@@ -6884,7 +6908,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2</v>
@@ -6895,7 +6919,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>3</v>
@@ -6906,7 +6930,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>4</v>
@@ -6917,7 +6941,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>5</v>
@@ -6928,7 +6952,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>1</v>
@@ -6939,7 +6963,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>2</v>
@@ -6950,7 +6974,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>3</v>
@@ -6961,7 +6985,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>4</v>
@@ -6972,7 +6996,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>5</v>
@@ -6983,7 +7007,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>1</v>
@@ -6994,7 +7018,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>2</v>
@@ -7005,7 +7029,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>3</v>
@@ -7016,7 +7040,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>4</v>
@@ -7027,7 +7051,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>5</v>
@@ -7038,7 +7062,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>6</v>
@@ -7049,7 +7073,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>7</v>
@@ -7060,7 +7084,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>8</v>
@@ -7071,7 +7095,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>1</v>
@@ -7082,7 +7106,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>2</v>
@@ -7093,7 +7117,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>3</v>
@@ -7104,7 +7128,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>4</v>
@@ -7115,7 +7139,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>5</v>
@@ -7126,7 +7150,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>6</v>
@@ -7137,7 +7161,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>7</v>
@@ -7148,7 +7172,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>8</v>
@@ -7159,7 +7183,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>2</v>
@@ -7170,7 +7194,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>3</v>
@@ -7181,7 +7205,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>4</v>
@@ -7192,7 +7216,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>5</v>
@@ -7203,7 +7227,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>6</v>
@@ -7214,7 +7238,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>7</v>
@@ -7225,7 +7249,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>8</v>
@@ -7236,7 +7260,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>9</v>
@@ -7247,7 +7271,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>2</v>
@@ -7258,7 +7282,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>3</v>
@@ -7269,7 +7293,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>4</v>
@@ -7280,7 +7304,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>5</v>
@@ -7291,7 +7315,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>2</v>
@@ -7302,7 +7326,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>3</v>
@@ -7313,7 +7337,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>4</v>
@@ -7324,7 +7348,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>5</v>
@@ -7335,7 +7359,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>8</v>
@@ -7346,7 +7370,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>2</v>
@@ -7357,7 +7381,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>3</v>
@@ -7368,7 +7392,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>4</v>
@@ -7379,7 +7403,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>5</v>
@@ -7390,7 +7414,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>6</v>
@@ -7401,7 +7425,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>9</v>
@@ -7412,7 +7436,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>7</v>
@@ -7423,7 +7447,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>8</v>
@@ -7434,7 +7458,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>2</v>
@@ -7445,7 +7469,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>3</v>
@@ -7456,7 +7480,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>4</v>
@@ -7467,7 +7491,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>5</v>
@@ -7478,7 +7502,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>0</v>
@@ -7489,7 +7513,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>1</v>
@@ -7500,7 +7524,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>2</v>
@@ -7511,7 +7535,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>3</v>
@@ -7522,7 +7546,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>4</v>
@@ -7533,7 +7557,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>5</v>
@@ -7544,7 +7568,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>2</v>
@@ -7555,7 +7579,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>3</v>
@@ -7566,7 +7590,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>4</v>
@@ -7577,7 +7601,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>5</v>
@@ -7588,7 +7612,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>6</v>
@@ -7599,7 +7623,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>4</v>
@@ -7610,7 +7634,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>8</v>
@@ -7621,7 +7645,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>9</v>
@@ -7632,7 +7656,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>4</v>
@@ -7643,7 +7667,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>2</v>
@@ -7654,7 +7678,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>3</v>
@@ -7665,7 +7689,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>8</v>
@@ -7676,7 +7700,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>9</v>
@@ -7687,7 +7711,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>1</v>
@@ -7698,7 +7722,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>3</v>
@@ -7709,7 +7733,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>4</v>
@@ -7720,7 +7744,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>8</v>
@@ -7731,7 +7755,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>9</v>
@@ -7742,7 +7766,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>1</v>
@@ -7753,7 +7777,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>2</v>
@@ -7764,7 +7788,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>3</v>
@@ -7775,7 +7799,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>4</v>
@@ -7786,7 +7810,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>5</v>
@@ -7797,7 +7821,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>6</v>
@@ -7808,7 +7832,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>7</v>
@@ -7819,7 +7843,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>8</v>
@@ -7830,7 +7854,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>9</v>
@@ -7841,7 +7865,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>10</v>
@@ -7852,7 +7876,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>2</v>
@@ -7863,7 +7887,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>3</v>
@@ -7874,7 +7898,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>4</v>
@@ -7885,7 +7909,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>5</v>
@@ -7896,7 +7920,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>6</v>
@@ -7907,7 +7931,7 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>8</v>
@@ -7918,7 +7942,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>9</v>
@@ -7960,18 +7984,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -7982,7 +8006,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -7993,7 +8017,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -8004,7 +8028,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -8015,7 +8039,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -8026,7 +8050,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -8037,7 +8061,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -8048,7 +8072,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -8059,7 +8083,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -8070,7 +8094,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -8081,7 +8105,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -8092,7 +8116,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -8103,7 +8127,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -8114,7 +8138,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -8125,7 +8149,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -8136,7 +8160,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -8147,7 +8171,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -8158,7 +8182,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -8169,7 +8193,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
@@ -8180,7 +8204,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>7</v>
@@ -8191,7 +8215,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -8202,7 +8226,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -8213,7 +8237,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -8224,7 +8248,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -8235,7 +8259,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>96</v>
@@ -8246,7 +8270,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -8257,7 +8281,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -8268,7 +8292,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
@@ -8279,7 +8303,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -8290,7 +8314,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -8301,7 +8325,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -8312,7 +8336,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
@@ -8323,7 +8347,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -8334,7 +8358,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -8345,7 +8369,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -8356,7 +8380,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -8367,7 +8391,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>10</v>
@@ -8378,7 +8402,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>11</v>
@@ -8389,7 +8413,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>12</v>
@@ -8400,7 +8424,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13</v>
@@ -8411,7 +8435,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>14</v>
@@ -8422,7 +8446,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>15</v>
@@ -8433,7 +8457,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>16</v>
@@ -8444,7 +8468,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>17</v>
@@ -8455,7 +8479,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2</v>
@@ -8466,7 +8490,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>3</v>
@@ -8477,7 +8501,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>4</v>
@@ -8488,7 +8512,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>5</v>
@@ -8499,7 +8523,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6</v>
@@ -8510,7 +8534,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>4</v>
@@ -8521,7 +8545,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3</v>
@@ -8532,7 +8556,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -8543,7 +8567,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -8554,7 +8578,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -8565,7 +8589,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>7</v>
@@ -8576,7 +8600,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -8587,7 +8611,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>4</v>
@@ -8598,7 +8622,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2</v>
@@ -8609,7 +8633,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -8620,7 +8644,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
@@ -8631,7 +8655,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -8642,7 +8666,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
@@ -8653,7 +8677,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>3</v>
@@ -8664,7 +8688,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>4</v>
@@ -8675,7 +8699,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
@@ -8686,7 +8710,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6</v>
@@ -8697,7 +8721,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -8708,7 +8732,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>3</v>
@@ -8719,7 +8743,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>4</v>
@@ -8730,7 +8754,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>5</v>
@@ -8741,7 +8765,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2</v>
@@ -8752,7 +8776,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>3</v>
@@ -8763,7 +8787,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>4</v>
@@ -8774,7 +8798,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2</v>
@@ -8785,7 +8809,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>3</v>
@@ -8796,7 +8820,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>4</v>
@@ -8807,7 +8831,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>5</v>
@@ -8818,7 +8842,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>3</v>
@@ -8829,7 +8853,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>4</v>
@@ -8840,7 +8864,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -8851,7 +8875,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -8862,7 +8886,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>4</v>
@@ -8873,7 +8897,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>5</v>
@@ -8884,7 +8908,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2</v>
@@ -8895,7 +8919,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>3</v>
@@ -8906,7 +8930,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -8917,7 +8941,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -8928,7 +8952,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>6</v>
@@ -8939,7 +8963,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>7</v>
@@ -8950,7 +8974,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>8</v>
@@ -8961,7 +8985,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>9</v>
@@ -8972,7 +8996,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>10</v>
@@ -8983,7 +9007,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>11</v>
@@ -8994,7 +9018,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1</v>
@@ -9005,7 +9029,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2</v>
@@ -9016,7 +9040,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>3</v>
@@ -9027,7 +9051,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>4</v>
@@ -9038,7 +9062,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2</v>
@@ -9049,7 +9073,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>3</v>
@@ -9060,7 +9084,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>4</v>
@@ -9071,7 +9095,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -9082,7 +9106,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2</v>
@@ -9093,7 +9117,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>4</v>
@@ -9104,7 +9128,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
@@ -9115,7 +9139,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1</v>
@@ -9126,7 +9150,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2</v>
@@ -9137,7 +9161,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
@@ -9148,7 +9172,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2</v>
@@ -9159,7 +9183,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>3</v>
@@ -9170,7 +9194,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -9181,7 +9205,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -9192,7 +9216,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>6</v>
@@ -9203,7 +9227,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>7</v>
@@ -9214,7 +9238,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>8</v>
@@ -9225,7 +9249,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>9</v>
@@ -9236,7 +9260,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>10</v>
@@ -9247,7 +9271,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0</v>
@@ -9258,7 +9282,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>1</v>
@@ -9269,7 +9293,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2</v>
@@ -9280,7 +9304,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>3</v>
@@ -9291,7 +9315,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>4</v>
@@ -9302,7 +9326,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>5</v>
@@ -9313,7 +9337,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>6</v>
@@ -9324,7 +9348,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -9335,7 +9359,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
@@ -9346,7 +9370,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>3</v>
@@ -9357,7 +9381,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>4</v>
@@ -9368,7 +9392,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -9379,7 +9403,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -9390,7 +9414,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0</v>
@@ -9401,7 +9425,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>1</v>
@@ -9412,7 +9436,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2</v>
@@ -9423,7 +9447,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>3</v>
@@ -9434,7 +9458,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -9445,7 +9469,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0</v>
@@ -9456,7 +9480,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>1</v>
@@ -9467,7 +9491,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2</v>
@@ -9478,7 +9502,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>3</v>
@@ -9489,7 +9513,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>4</v>
@@ -9500,7 +9524,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -9511,7 +9535,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>1</v>
@@ -9522,7 +9546,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2</v>
@@ -9533,7 +9557,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>3</v>
@@ -9544,7 +9568,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>4</v>
@@ -9555,7 +9579,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>5</v>
@@ -9566,7 +9590,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -9577,7 +9601,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -9588,7 +9612,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>8</v>
@@ -9599,7 +9623,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>9</v>
@@ -9610,7 +9634,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>10</v>
@@ -9621,7 +9645,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>11</v>
@@ -9632,7 +9656,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>12</v>
@@ -9643,7 +9667,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2</v>
@@ -9654,7 +9678,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>3</v>
@@ -9665,7 +9689,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>4</v>
@@ -9676,7 +9700,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>5</v>
@@ -9687,7 +9711,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>6</v>
@@ -9698,7 +9722,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>7</v>
@@ -9709,7 +9733,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2</v>
@@ -9720,7 +9744,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>3</v>
@@ -9731,7 +9755,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>4</v>
@@ -9742,7 +9766,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2</v>
@@ -9753,7 +9777,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>3</v>
@@ -9764,7 +9788,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>4</v>
@@ -9775,7 +9799,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1</v>
@@ -9786,7 +9810,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2</v>
@@ -9797,7 +9821,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2</v>
@@ -9808,7 +9832,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3</v>
@@ -9819,7 +9843,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>4</v>
@@ -9830,7 +9854,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>5</v>
@@ -9841,7 +9865,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>6</v>
@@ -9852,7 +9876,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>7</v>
@@ -9863,7 +9887,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>8</v>
@@ -9874,7 +9898,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>3</v>
@@ -9885,7 +9909,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>4</v>
@@ -9896,7 +9920,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>5</v>
@@ -9907,7 +9931,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>6</v>
@@ -9918,7 +9942,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>7</v>
@@ -9929,7 +9953,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2</v>
@@ -9940,7 +9964,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>3</v>
@@ -9951,7 +9975,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>4</v>
@@ -9962,7 +9986,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>3</v>
@@ -9973,7 +9997,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
@@ -9984,7 +10008,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2</v>
@@ -9995,7 +10019,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>3</v>
@@ -10006,7 +10030,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>4</v>
@@ -10017,7 +10041,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>5</v>
@@ -10028,7 +10052,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>6</v>
@@ -10039,7 +10063,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>7</v>
@@ -10050,7 +10074,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>1</v>
@@ -10061,7 +10085,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2</v>
@@ -10072,7 +10096,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>3</v>
@@ -10083,7 +10107,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>4</v>
@@ -10094,7 +10118,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>3</v>
@@ -10105,7 +10129,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>4</v>
@@ -10116,7 +10140,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>5</v>
@@ -10127,7 +10151,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>3</v>
@@ -10138,7 +10162,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>4</v>
@@ -10149,7 +10173,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>5</v>
@@ -10160,7 +10184,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2</v>
@@ -10171,7 +10195,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>3</v>
@@ -10182,7 +10206,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>4</v>
@@ -10193,7 +10217,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>5</v>
@@ -10204,7 +10228,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2</v>
@@ -10215,7 +10239,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3</v>
@@ -10226,7 +10250,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>4</v>
@@ -10237,7 +10261,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>5</v>
@@ -10248,7 +10272,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>1</v>
@@ -10259,7 +10283,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>3</v>
@@ -10270,7 +10294,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>4</v>
@@ -10281,7 +10305,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>5</v>
@@ -10292,7 +10316,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>1</v>
@@ -10303,7 +10327,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>2</v>
@@ -10314,7 +10338,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>3</v>
@@ -10325,7 +10349,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>4</v>
@@ -10336,7 +10360,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>5</v>
@@ -10347,7 +10371,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>6</v>
@@ -10358,7 +10382,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>7</v>
@@ -10369,7 +10393,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>1</v>
@@ -10380,7 +10404,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>2</v>
@@ -10391,7 +10415,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>3</v>
@@ -10402,7 +10426,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>4</v>
@@ -10413,7 +10437,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>5</v>
@@ -10424,7 +10448,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>6</v>
@@ -10435,7 +10459,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>7</v>
@@ -10446,7 +10470,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>2</v>
@@ -10457,7 +10481,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>3</v>
@@ -10468,7 +10492,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>4</v>
@@ -10479,7 +10503,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>5</v>
@@ -10490,7 +10514,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>6</v>
@@ -10501,7 +10525,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>7</v>
@@ -10512,7 +10536,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>8</v>
@@ -10523,7 +10547,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>9</v>
@@ -10534,7 +10558,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>2</v>
@@ -10545,7 +10569,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>3</v>
@@ -10556,7 +10580,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>4</v>
@@ -10567,7 +10591,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>5</v>
@@ -10578,7 +10602,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>2</v>
@@ -10589,7 +10613,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>3</v>
@@ -10600,7 +10624,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>4</v>
@@ -10611,7 +10635,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>5</v>
@@ -10622,7 +10646,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>8</v>
@@ -10633,7 +10657,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>2</v>
@@ -10644,7 +10668,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>3</v>
@@ -10655,7 +10679,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>4</v>
@@ -10666,7 +10690,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>5</v>
@@ -10677,7 +10701,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>6</v>
@@ -10688,7 +10712,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>9</v>
@@ -10699,7 +10723,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>7</v>
@@ -10710,7 +10734,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>8</v>
@@ -10721,7 +10745,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>2</v>
@@ -10732,7 +10756,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>3</v>
@@ -10743,7 +10767,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>4</v>
@@ -10754,7 +10778,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>5</v>
@@ -10765,7 +10789,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>0</v>
@@ -10776,7 +10800,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>1</v>
@@ -10787,7 +10811,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>2</v>
@@ -10798,7 +10822,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>3</v>
@@ -10809,7 +10833,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>4</v>
@@ -10820,7 +10844,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>5</v>
@@ -10831,7 +10855,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>2</v>
@@ -10842,7 +10866,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>3</v>
@@ -10853,7 +10877,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>4</v>
@@ -10864,7 +10888,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>5</v>
@@ -10875,7 +10899,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>6</v>
@@ -10886,7 +10910,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>4</v>
@@ -10897,7 +10921,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>8</v>
@@ -10908,7 +10932,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>9</v>
@@ -10919,7 +10943,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>2</v>
@@ -10930,7 +10954,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>3</v>
@@ -10941,7 +10965,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>4</v>
@@ -10952,7 +10976,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>8</v>
@@ -10963,7 +10987,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>9</v>
@@ -10974,7 +10998,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>1</v>
@@ -10985,7 +11009,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>3</v>
@@ -10996,7 +11020,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>4</v>
@@ -11007,7 +11031,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>8</v>
@@ -11018,7 +11042,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>9</v>
@@ -11029,7 +11053,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>1</v>
@@ -11040,7 +11064,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>2</v>
@@ -11051,7 +11075,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>3</v>
@@ -11062,7 +11086,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>4</v>
@@ -11073,7 +11097,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>5</v>
@@ -11084,7 +11108,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>6</v>
@@ -11095,7 +11119,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>7</v>
@@ -11106,7 +11130,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>8</v>
@@ -11117,7 +11141,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>9</v>
@@ -11128,7 +11152,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>10</v>
@@ -11139,7 +11163,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>2</v>
@@ -11150,7 +11174,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>3</v>
@@ -11161,7 +11185,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>4</v>
@@ -11172,7 +11196,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>5</v>
@@ -11183,7 +11207,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>6</v>
@@ -11194,7 +11218,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>8</v>
@@ -11205,7 +11229,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>9</v>
@@ -11247,18 +11271,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -11269,7 +11293,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -11280,7 +11304,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
@@ -11291,7 +11315,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11302,7 +11326,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -11313,7 +11337,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -11324,7 +11348,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -11335,7 +11359,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -11346,7 +11370,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
@@ -11357,7 +11381,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -11368,7 +11392,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -11379,7 +11403,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -11390,7 +11414,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4</v>
@@ -11401,7 +11425,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
@@ -11412,7 +11436,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6</v>
@@ -11423,7 +11447,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2</v>
@@ -11434,7 +11458,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -11445,7 +11469,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -11456,7 +11480,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>6</v>
@@ -11467,7 +11491,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>7</v>
@@ -11478,7 +11502,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>2</v>
@@ -11489,7 +11513,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -11500,7 +11524,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -11511,7 +11535,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
@@ -11522,7 +11546,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>96</v>
@@ -11533,7 +11557,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
@@ -11544,7 +11568,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
@@ -11555,7 +11579,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
@@ -11566,7 +11590,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2</v>
@@ -11577,7 +11601,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
@@ -11588,7 +11612,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4</v>
@@ -11599,7 +11623,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>5</v>
@@ -11610,7 +11634,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -11621,7 +11645,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>2</v>
@@ -11632,7 +11656,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -11643,7 +11667,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2</v>
@@ -11654,7 +11678,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>10</v>
@@ -11665,7 +11689,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>11</v>
@@ -11676,7 +11700,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>12</v>
@@ -11687,7 +11711,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>13</v>
@@ -11698,7 +11722,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>14</v>
@@ -11709,7 +11733,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>15</v>
@@ -11720,7 +11744,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>16</v>
@@ -11731,7 +11755,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>17</v>
@@ -11742,7 +11766,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>2</v>
@@ -11753,7 +11777,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>3</v>
@@ -11764,7 +11788,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>4</v>
@@ -11775,7 +11799,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>5</v>
@@ -11786,7 +11810,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6</v>
@@ -11797,7 +11821,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>4</v>
@@ -11808,7 +11832,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>3</v>
@@ -11819,7 +11843,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4</v>
@@ -11830,7 +11854,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -11841,7 +11865,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>6</v>
@@ -11852,7 +11876,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>7</v>
@@ -11863,7 +11887,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3</v>
@@ -11874,7 +11898,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>4</v>
@@ -11885,7 +11909,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2</v>
@@ -11896,7 +11920,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3</v>
@@ -11907,7 +11931,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>4</v>
@@ -11918,7 +11942,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
@@ -11929,7 +11953,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
@@ -11940,7 +11964,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>3</v>
@@ -11951,7 +11975,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>4</v>
@@ -11962,7 +11986,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
@@ -11973,7 +11997,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6</v>
@@ -11984,7 +12008,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2</v>
@@ -11995,7 +12019,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>3</v>
@@ -12006,7 +12030,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>4</v>
@@ -12017,7 +12041,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>5</v>
@@ -12028,7 +12052,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>2</v>
@@ -12039,7 +12063,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>3</v>
@@ -12050,7 +12074,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>4</v>
@@ -12061,7 +12085,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2</v>
@@ -12072,7 +12096,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>3</v>
@@ -12083,7 +12107,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>4</v>
@@ -12094,7 +12118,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>5</v>
@@ -12105,7 +12129,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>3</v>
@@ -12116,7 +12140,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>4</v>
@@ -12127,7 +12151,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
@@ -12138,7 +12162,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>6</v>
@@ -12149,7 +12173,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>4</v>
@@ -12160,7 +12184,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>5</v>
@@ -12171,7 +12195,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>2</v>
@@ -12182,7 +12206,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>3</v>
@@ -12193,7 +12217,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -12204,7 +12228,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
@@ -12215,7 +12239,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>6</v>
@@ -12226,7 +12250,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>7</v>
@@ -12237,7 +12261,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>8</v>
@@ -12248,7 +12272,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>9</v>
@@ -12259,7 +12283,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>10</v>
@@ -12270,7 +12294,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>11</v>
@@ -12281,7 +12305,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1</v>
@@ -12292,7 +12316,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2</v>
@@ -12303,7 +12327,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>3</v>
@@ -12314,7 +12338,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>4</v>
@@ -12325,7 +12349,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>2</v>
@@ -12336,7 +12360,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>3</v>
@@ -12347,7 +12371,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>4</v>
@@ -12358,7 +12382,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -12369,7 +12393,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2</v>
@@ -12380,7 +12404,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>4</v>
@@ -12391,7 +12415,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
@@ -12402,7 +12426,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>1</v>
@@ -12413,7 +12437,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2</v>
@@ -12424,7 +12448,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
@@ -12435,7 +12459,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>2</v>
@@ -12446,7 +12470,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>3</v>
@@ -12457,7 +12481,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>4</v>
@@ -12468,7 +12492,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>5</v>
@@ -12479,7 +12503,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>6</v>
@@ -12490,7 +12514,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>7</v>
@@ -12501,7 +12525,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>8</v>
@@ -12512,7 +12536,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>9</v>
@@ -12523,7 +12547,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>10</v>
@@ -12534,7 +12558,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0</v>
@@ -12545,7 +12569,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>1</v>
@@ -12556,7 +12580,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>2</v>
@@ -12567,7 +12591,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>3</v>
@@ -12578,7 +12602,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>4</v>
@@ -12589,7 +12613,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>5</v>
@@ -12600,7 +12624,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>6</v>
@@ -12611,7 +12635,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>7</v>
@@ -12622,7 +12646,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
@@ -12633,7 +12657,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>3</v>
@@ -12644,7 +12668,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>4</v>
@@ -12655,7 +12679,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>5</v>
@@ -12666,7 +12690,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>6</v>
@@ -12677,7 +12701,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0</v>
@@ -12688,7 +12712,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>1</v>
@@ -12699,7 +12723,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>2</v>
@@ -12710,7 +12734,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>3</v>
@@ -12721,7 +12745,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>4</v>
@@ -12732,7 +12756,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0</v>
@@ -12743,7 +12767,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>1</v>
@@ -12754,7 +12778,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>2</v>
@@ -12765,7 +12789,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>3</v>
@@ -12776,7 +12800,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>4</v>
@@ -12787,7 +12811,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -12798,7 +12822,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>1</v>
@@ -12809,7 +12833,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>2</v>
@@ -12820,7 +12844,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>3</v>
@@ -12831,7 +12855,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>4</v>
@@ -12842,7 +12866,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>5</v>
@@ -12853,7 +12877,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>6</v>
@@ -12864,7 +12888,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>7</v>
@@ -12875,7 +12899,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>8</v>
@@ -12886,7 +12910,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>9</v>
@@ -12897,7 +12921,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>10</v>
@@ -12908,7 +12932,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>11</v>
@@ -12919,7 +12943,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>12</v>
@@ -12930,7 +12954,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>2</v>
@@ -12941,7 +12965,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>3</v>
@@ -12952,7 +12976,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>4</v>
@@ -12963,7 +12987,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>5</v>
@@ -12974,7 +12998,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>6</v>
@@ -12985,7 +13009,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>7</v>
@@ -12996,7 +13020,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>2</v>
@@ -13007,7 +13031,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>3</v>
@@ -13018,7 +13042,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>4</v>
@@ -13029,7 +13053,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>2</v>
@@ -13040,7 +13064,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>3</v>
@@ -13051,7 +13075,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>4</v>
@@ -13062,7 +13086,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>1</v>
@@ -13073,7 +13097,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2</v>
@@ -13084,7 +13108,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>2</v>
@@ -13095,7 +13119,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>3</v>
@@ -13106,7 +13130,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>4</v>
@@ -13117,7 +13141,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>5</v>
@@ -13128,7 +13152,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>6</v>
@@ -13139,7 +13163,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>7</v>
@@ -13150,7 +13174,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>8</v>
@@ -13161,7 +13185,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>3</v>
@@ -13172,7 +13196,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>4</v>
@@ -13183,7 +13207,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>5</v>
@@ -13194,7 +13218,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>6</v>
@@ -13205,7 +13229,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>7</v>
@@ -13216,7 +13240,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>2</v>
@@ -13227,7 +13251,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>3</v>
@@ -13238,7 +13262,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>4</v>
@@ -13249,7 +13273,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>3</v>
@@ -13260,7 +13284,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>4</v>
@@ -13271,7 +13295,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>2</v>
@@ -13282,7 +13306,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>3</v>
@@ -13293,7 +13317,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>4</v>
@@ -13304,7 +13328,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>5</v>
@@ -13315,7 +13339,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>6</v>
@@ -13326,7 +13350,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>7</v>
@@ -13337,7 +13361,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>1</v>
@@ -13348,7 +13372,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>2</v>
@@ -13359,7 +13383,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>3</v>
@@ -13370,7 +13394,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>4</v>
@@ -13381,7 +13405,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>3</v>
@@ -13392,7 +13416,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>4</v>
@@ -13403,7 +13427,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>5</v>
@@ -13414,7 +13438,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>3</v>
@@ -13425,7 +13449,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>4</v>
@@ -13436,7 +13460,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>5</v>
@@ -13447,7 +13471,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2</v>
@@ -13458,7 +13482,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>3</v>
@@ -13469,7 +13493,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>4</v>
@@ -13480,7 +13504,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>5</v>
@@ -13491,7 +13515,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2</v>
@@ -13502,7 +13526,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>3</v>
@@ -13513,7 +13537,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>4</v>
@@ -13524,7 +13548,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>5</v>
@@ -13535,7 +13559,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>1</v>
@@ -13546,7 +13570,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2</v>
@@ -13557,7 +13581,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>3</v>
@@ -13568,7 +13592,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>4</v>
@@ -13579,7 +13603,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>5</v>
@@ -13590,7 +13614,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>1</v>
@@ -13601,7 +13625,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>2</v>
@@ -13612,7 +13636,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>3</v>
@@ -13623,7 +13647,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>4</v>
@@ -13634,7 +13658,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>5</v>
@@ -13645,7 +13669,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>6</v>
@@ -13656,7 +13680,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>7</v>
@@ -13667,7 +13691,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>1</v>
@@ -13678,7 +13702,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>2</v>
@@ -13689,7 +13713,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>3</v>
@@ -13700,7 +13724,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>4</v>
@@ -13711,7 +13735,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>5</v>
@@ -13722,7 +13746,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>6</v>
@@ -13733,7 +13757,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>7</v>
@@ -13744,7 +13768,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>2</v>
@@ -13755,7 +13779,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>3</v>
@@ -13766,7 +13790,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>4</v>
@@ -13777,7 +13801,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>5</v>
@@ -13788,7 +13812,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>6</v>
@@ -13799,7 +13823,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>7</v>
@@ -13810,7 +13834,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>8</v>
@@ -13821,7 +13845,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>9</v>
@@ -13832,7 +13856,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>2</v>
@@ -13843,7 +13867,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>3</v>
@@ -13854,7 +13878,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>4</v>
@@ -13865,7 +13889,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>5</v>
@@ -13876,7 +13900,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>2</v>
@@ -13887,7 +13911,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>3</v>
@@ -13898,7 +13922,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>4</v>
@@ -13909,7 +13933,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>5</v>
@@ -13920,7 +13944,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>8</v>
@@ -13931,7 +13955,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>2</v>
@@ -13942,7 +13966,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>3</v>
@@ -13953,7 +13977,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>4</v>
@@ -13964,7 +13988,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>5</v>
@@ -13975,7 +13999,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>6</v>
@@ -13986,7 +14010,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>9</v>
@@ -13997,7 +14021,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>7</v>
@@ -14008,7 +14032,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>8</v>
@@ -14019,7 +14043,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>2</v>
@@ -14030,7 +14054,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>3</v>
@@ -14041,7 +14065,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>4</v>
@@ -14052,7 +14076,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>5</v>
@@ -14063,7 +14087,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>0</v>
@@ -14074,7 +14098,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>1</v>
@@ -14085,7 +14109,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>2</v>
@@ -14096,7 +14120,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>3</v>
@@ -14107,7 +14131,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>4</v>
@@ -14118,7 +14142,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>5</v>
@@ -14129,7 +14153,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>2</v>
@@ -14140,7 +14164,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>3</v>
@@ -14151,7 +14175,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>4</v>
@@ -14162,7 +14186,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>5</v>
@@ -14173,7 +14197,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>6</v>
@@ -14184,7 +14208,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>4</v>
@@ -14195,7 +14219,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>8</v>
@@ -14206,7 +14230,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>9</v>
@@ -14217,7 +14241,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>2</v>
@@ -14228,7 +14252,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>3</v>
@@ -14239,7 +14263,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>4</v>
@@ -14250,7 +14274,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>8</v>
@@ -14261,7 +14285,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>9</v>
@@ -14272,7 +14296,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>1</v>
@@ -14283,7 +14307,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>3</v>
@@ -14294,7 +14318,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>4</v>
@@ -14305,7 +14329,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>8</v>
@@ -14316,7 +14340,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>9</v>
@@ -14327,7 +14351,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>1</v>
@@ -14338,7 +14362,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>2</v>
@@ -14349,7 +14373,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>3</v>
@@ -14360,7 +14384,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>4</v>
@@ -14371,7 +14395,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>5</v>
@@ -14382,7 +14406,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>6</v>
@@ -14393,7 +14417,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>7</v>
@@ -14404,7 +14428,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>8</v>
@@ -14415,7 +14439,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>9</v>
@@ -14426,7 +14450,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>10</v>
@@ -14437,7 +14461,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>2</v>
@@ -14448,7 +14472,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>3</v>
@@ -14459,7 +14483,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>4</v>
@@ -14470,7 +14494,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>5</v>
@@ -14481,7 +14505,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>6</v>
@@ -14492,7 +14516,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>8</v>
@@ -14503,7 +14527,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>9</v>
@@ -14610,22 +14634,22 @@
       <selection pane="topLeft" activeCell="G72" activeCellId="0" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -14633,7 +14657,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -14641,7 +14665,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -14649,7 +14673,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -14657,7 +14681,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4</v>
@@ -14665,7 +14689,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
@@ -14673,7 +14697,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6</v>
@@ -14681,7 +14705,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>7</v>
@@ -14689,7 +14713,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8</v>
@@ -14697,7 +14721,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8</v>
@@ -14705,7 +14729,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>9</v>
@@ -14713,7 +14737,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>10</v>
@@ -14721,7 +14745,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10</v>
@@ -14729,7 +14753,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>10</v>
@@ -14737,7 +14761,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>10</v>
@@ -14745,7 +14769,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>11</v>
@@ -14753,7 +14777,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>12</v>
@@ -14761,7 +14785,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>13</v>
@@ -14769,7 +14793,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>13</v>
@@ -14777,7 +14801,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>14</v>
@@ -14785,7 +14809,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>14</v>
@@ -14793,7 +14817,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>14</v>
@@ -14801,7 +14825,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>14</v>
@@ -14809,7 +14833,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>14</v>
@@ -14817,7 +14841,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>14</v>
@@ -14825,7 +14849,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>14</v>
@@ -14833,7 +14857,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>14</v>
@@ -14841,7 +14865,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>14</v>
@@ -14849,7 +14873,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>14</v>
@@ -14857,7 +14881,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>14</v>
@@ -14865,7 +14889,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>14</v>
@@ -14873,7 +14897,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>14</v>
@@ -14881,7 +14905,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>14</v>
@@ -14889,7 +14913,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>14</v>
@@ -14897,7 +14921,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>14</v>
@@ -14905,7 +14929,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>14</v>
@@ -14913,7 +14937,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>14</v>
@@ -14921,7 +14945,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>14</v>
@@ -14929,7 +14953,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>14</v>
@@ -14937,7 +14961,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>14</v>
@@ -14945,7 +14969,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>14</v>
@@ -14953,7 +14977,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>14</v>
@@ -14961,7 +14985,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>14</v>
@@ -14969,7 +14993,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>14</v>
@@ -14977,7 +15001,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>14</v>
@@ -14985,7 +15009,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>14</v>
@@ -14993,7 +15017,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>14</v>
@@ -15001,7 +15025,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>14</v>
@@ -15009,7 +15033,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>14</v>
@@ -15017,7 +15041,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>14</v>
@@ -15025,7 +15049,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>14</v>
@@ -15033,7 +15057,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>14</v>
@@ -15041,7 +15065,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>14</v>
@@ -15049,7 +15073,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>14</v>
@@ -15057,7 +15081,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>14</v>
@@ -15065,7 +15089,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>14</v>
@@ -15073,7 +15097,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>14</v>
@@ -15081,7 +15105,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>14</v>
@@ -15089,7 +15113,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>14</v>
@@ -15097,7 +15121,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>14</v>
@@ -15105,7 +15129,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>14</v>
@@ -15113,7 +15137,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>14</v>
@@ -15121,7 +15145,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>14</v>
@@ -15129,7 +15153,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>14</v>
@@ -15137,7 +15161,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>15</v>
@@ -15145,7 +15169,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>16</v>
@@ -15153,7 +15177,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>17</v>
@@ -15161,7 +15185,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>18</v>
@@ -15169,7 +15193,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>20</v>
@@ -15177,7 +15201,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>20</v>
@@ -15185,7 +15209,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>21</v>
@@ -15193,7 +15217,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>6</v>
@@ -15201,7 +15225,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>10</v>
@@ -15209,7 +15233,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>13</v>
@@ -15217,7 +15241,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>13</v>
@@ -15225,7 +15249,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>14</v>
@@ -15233,7 +15257,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>14</v>
@@ -15241,7 +15265,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>22</v>
@@ -15249,7 +15273,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>14</v>
@@ -15257,7 +15281,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>14</v>
@@ -15265,7 +15289,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>14</v>
@@ -15273,7 +15297,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>14</v>
@@ -15281,7 +15305,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>14</v>
